--- a/Code/Results/Cases/Case_0_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_36/res_line/loading_percent.xlsx
@@ -421,16 +421,16 @@
         <v>12.38514519445456</v>
       </c>
       <c r="E2">
-        <v>49.53245155127971</v>
+        <v>49.53245155127981</v>
       </c>
       <c r="F2">
-        <v>70.57147374007785</v>
+        <v>70.57147374007749</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>52.87386717313562</v>
+        <v>52.87386717313532</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>37.88866226359234</v>
+        <v>37.88866226359242</v>
       </c>
       <c r="L2">
         <v>118.7400289131769</v>
@@ -453,22 +453,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.658947300321044</v>
+        <v>7.658947300320962</v>
       </c>
       <c r="D3">
-        <v>8.978980414223614</v>
+        <v>8.978980414223555</v>
       </c>
       <c r="E3">
-        <v>42.45186421068201</v>
+        <v>42.45186421068202</v>
       </c>
       <c r="F3">
-        <v>54.38705465211346</v>
+        <v>54.38705465211275</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>40.23309701703796</v>
+        <v>40.23309701703749</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>32.19325194446029</v>
       </c>
       <c r="L3">
-        <v>102.3541678786065</v>
+        <v>102.3541678786064</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,22 +491,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.088565831598774</v>
+        <v>7.08856583159883</v>
       </c>
       <c r="D4">
-        <v>7.661378465867841</v>
+        <v>7.661378465867701</v>
       </c>
       <c r="E4">
-        <v>39.31228478906908</v>
+        <v>39.31228478906891</v>
       </c>
       <c r="F4">
-        <v>47.94800152727227</v>
+        <v>47.94800152727174</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>35.22913702184999</v>
+        <v>35.2291370218495</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>29.724198829474</v>
+        <v>29.72419882947387</v>
       </c>
       <c r="L4">
-        <v>94.92862848080168</v>
+        <v>94.92862848080141</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,22 +529,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.870594029987706</v>
+        <v>6.870594029987659</v>
       </c>
       <c r="D5">
-        <v>7.190834809353334</v>
+        <v>7.19083480935345</v>
       </c>
       <c r="E5">
-        <v>38.12201115001142</v>
+        <v>38.12201115001155</v>
       </c>
       <c r="F5">
-        <v>45.62917580163678</v>
+        <v>45.62917580163652</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>33.42964333732092</v>
+        <v>33.42964333732079</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>28.79541475313994</v>
+        <v>28.79541475314007</v>
       </c>
       <c r="L5">
-        <v>92.09710431754255</v>
+        <v>92.09710431754272</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,22 +567,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.834958529177496</v>
+        <v>6.834958529177595</v>
       </c>
       <c r="D6">
-        <v>7.115510225044027</v>
+        <v>7.115510225044226</v>
       </c>
       <c r="E6">
-        <v>37.92775954713417</v>
+        <v>37.92775954713415</v>
       </c>
       <c r="F6">
-        <v>45.25718865724952</v>
+        <v>45.25718865724949</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>33.14106728661107</v>
+        <v>33.1410672866111</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>28.64418626251614</v>
+        <v>28.64418626251613</v>
       </c>
       <c r="L6">
-        <v>91.6342816604753</v>
+        <v>91.63428166047525</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,22 +605,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.085583338547813</v>
+        <v>7.085583338548054</v>
       </c>
       <c r="D7">
-        <v>7.65482376824045</v>
+        <v>7.654823768240579</v>
       </c>
       <c r="E7">
-        <v>39.29597101955496</v>
+        <v>39.29597101955492</v>
       </c>
       <c r="F7">
-        <v>47.91576248329524</v>
+        <v>47.91576248329561</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>35.20411040884134</v>
+        <v>35.20411040884159</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>29.7114435569802</v>
+        <v>29.71144355698019</v>
       </c>
       <c r="L7">
-        <v>94.88987381746134</v>
+        <v>94.88987381746136</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,22 +643,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.38128887478393</v>
+        <v>8.381288874783873</v>
       </c>
       <c r="D8">
-        <v>10.86082472530708</v>
+        <v>10.86082472530696</v>
       </c>
       <c r="E8">
-        <v>46.52179515305557</v>
+        <v>46.52179515305527</v>
       </c>
       <c r="F8">
-        <v>63.417462457447</v>
+        <v>63.41746245744653</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>47.27344611970062</v>
+        <v>47.27344611970023</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>35.44257507693352</v>
+        <v>35.4425750769333</v>
       </c>
       <c r="L8">
-        <v>111.8518210812489</v>
+        <v>111.8518210812484</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,22 +681,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.38128887478393</v>
+        <v>8.381288874783873</v>
       </c>
       <c r="D9">
-        <v>10.86082472530708</v>
+        <v>10.86082472530696</v>
       </c>
       <c r="E9">
-        <v>46.52179515305557</v>
+        <v>46.52179515305527</v>
       </c>
       <c r="F9">
-        <v>63.417462457447</v>
+        <v>63.41746245744653</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>47.27344611970062</v>
+        <v>47.27344611970023</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>35.44257507693352</v>
+        <v>35.4425750769333</v>
       </c>
       <c r="L9">
-        <v>111.8518210812489</v>
+        <v>111.8518210812484</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,22 +719,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.38128887478393</v>
+        <v>8.381288874783873</v>
       </c>
       <c r="D10">
-        <v>10.86082472530708</v>
+        <v>10.86082472530696</v>
       </c>
       <c r="E10">
-        <v>46.52179515305557</v>
+        <v>46.52179515305527</v>
       </c>
       <c r="F10">
-        <v>63.417462457447</v>
+        <v>63.41746245744653</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>47.27344611970062</v>
+        <v>47.27344611970023</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>35.44257507693352</v>
+        <v>35.4425750769333</v>
       </c>
       <c r="L10">
-        <v>111.8518210812489</v>
+        <v>111.8518210812484</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,22 +757,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.38128887478393</v>
+        <v>8.381288874783873</v>
       </c>
       <c r="D11">
-        <v>10.86082472530708</v>
+        <v>10.86082472530696</v>
       </c>
       <c r="E11">
-        <v>46.52179515305557</v>
+        <v>46.52179515305527</v>
       </c>
       <c r="F11">
-        <v>63.417462457447</v>
+        <v>63.41746245744653</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>47.27344611970062</v>
+        <v>47.27344611970023</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>35.44257507693352</v>
+        <v>35.4425750769333</v>
       </c>
       <c r="L11">
-        <v>111.8518210812489</v>
+        <v>111.8518210812484</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,22 +795,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.38128887478393</v>
+        <v>8.381288874783873</v>
       </c>
       <c r="D12">
-        <v>10.86082472530708</v>
+        <v>10.86082472530696</v>
       </c>
       <c r="E12">
-        <v>46.52179515305557</v>
+        <v>46.52179515305527</v>
       </c>
       <c r="F12">
-        <v>63.417462457447</v>
+        <v>63.41746245744653</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>47.27344611970062</v>
+        <v>47.27344611970023</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>35.44257507693352</v>
+        <v>35.4425750769333</v>
       </c>
       <c r="L12">
-        <v>111.8518210812489</v>
+        <v>111.8518210812484</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,22 +833,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.38128887478393</v>
+        <v>8.381288874783873</v>
       </c>
       <c r="D13">
-        <v>10.86082472530708</v>
+        <v>10.86082472530696</v>
       </c>
       <c r="E13">
-        <v>46.52179515305557</v>
+        <v>46.52179515305527</v>
       </c>
       <c r="F13">
-        <v>63.417462457447</v>
+        <v>63.41746245744653</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>47.27344611970062</v>
+        <v>47.27344611970023</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>35.44257507693352</v>
+        <v>35.4425750769333</v>
       </c>
       <c r="L13">
-        <v>111.8518210812489</v>
+        <v>111.8518210812484</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,22 +871,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.38128887478393</v>
+        <v>8.381288874783873</v>
       </c>
       <c r="D14">
-        <v>10.86082472530708</v>
+        <v>10.86082472530696</v>
       </c>
       <c r="E14">
-        <v>46.52179515305557</v>
+        <v>46.52179515305527</v>
       </c>
       <c r="F14">
-        <v>63.417462457447</v>
+        <v>63.41746245744653</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>47.27344611970062</v>
+        <v>47.27344611970023</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>35.44257507693352</v>
+        <v>35.4425750769333</v>
       </c>
       <c r="L14">
-        <v>111.8518210812489</v>
+        <v>111.8518210812484</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.38128887478393</v>
+        <v>8.381288874783873</v>
       </c>
       <c r="D15">
-        <v>10.86082472530708</v>
+        <v>10.86082472530696</v>
       </c>
       <c r="E15">
-        <v>46.52179515305557</v>
+        <v>46.52179515305527</v>
       </c>
       <c r="F15">
-        <v>63.417462457447</v>
+        <v>63.41746245744653</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>47.27344611970062</v>
+        <v>47.27344611970023</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>35.44257507693352</v>
+        <v>35.4425750769333</v>
       </c>
       <c r="L15">
-        <v>111.8518210812489</v>
+        <v>111.8518210812484</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.38128887478393</v>
+        <v>8.381288874783873</v>
       </c>
       <c r="D16">
-        <v>10.86082472530708</v>
+        <v>10.86082472530696</v>
       </c>
       <c r="E16">
-        <v>46.52179515305557</v>
+        <v>46.52179515305527</v>
       </c>
       <c r="F16">
-        <v>63.417462457447</v>
+        <v>63.41746245744653</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>47.27344611970062</v>
+        <v>47.27344611970023</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>35.44257507693352</v>
+        <v>35.4425750769333</v>
       </c>
       <c r="L16">
-        <v>111.8518210812489</v>
+        <v>111.8518210812484</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,22 +985,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.38128887478393</v>
+        <v>8.381288874783873</v>
       </c>
       <c r="D17">
-        <v>10.86082472530708</v>
+        <v>10.86082472530696</v>
       </c>
       <c r="E17">
-        <v>46.52179515305557</v>
+        <v>46.52179515305527</v>
       </c>
       <c r="F17">
-        <v>63.417462457447</v>
+        <v>63.41746245744653</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>47.27344611970062</v>
+        <v>47.27344611970023</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>35.44257507693352</v>
+        <v>35.4425750769333</v>
       </c>
       <c r="L17">
-        <v>111.8518210812489</v>
+        <v>111.8518210812484</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.38128887478393</v>
+        <v>8.381288874783873</v>
       </c>
       <c r="D18">
-        <v>10.86082472530708</v>
+        <v>10.86082472530696</v>
       </c>
       <c r="E18">
-        <v>46.52179515305557</v>
+        <v>46.52179515305527</v>
       </c>
       <c r="F18">
-        <v>63.417462457447</v>
+        <v>63.41746245744653</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>47.27344611970062</v>
+        <v>47.27344611970023</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>35.44257507693352</v>
+        <v>35.4425750769333</v>
       </c>
       <c r="L18">
-        <v>111.8518210812489</v>
+        <v>111.8518210812484</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,22 +1061,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.38128887478393</v>
+        <v>8.381288874783873</v>
       </c>
       <c r="D19">
-        <v>10.86082472530708</v>
+        <v>10.86082472530696</v>
       </c>
       <c r="E19">
-        <v>46.52179515305557</v>
+        <v>46.52179515305527</v>
       </c>
       <c r="F19">
-        <v>63.417462457447</v>
+        <v>63.41746245744653</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>47.27344611970062</v>
+        <v>47.27344611970023</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>35.44257507693352</v>
+        <v>35.4425750769333</v>
       </c>
       <c r="L19">
-        <v>111.8518210812489</v>
+        <v>111.8518210812484</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.38128887478393</v>
+        <v>8.381288874783873</v>
       </c>
       <c r="D20">
-        <v>10.86082472530708</v>
+        <v>10.86082472530696</v>
       </c>
       <c r="E20">
-        <v>46.52179515305557</v>
+        <v>46.52179515305527</v>
       </c>
       <c r="F20">
-        <v>63.417462457447</v>
+        <v>63.41746245744653</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>47.27344611970062</v>
+        <v>47.27344611970023</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>35.44257507693352</v>
+        <v>35.4425750769333</v>
       </c>
       <c r="L20">
-        <v>111.8518210812489</v>
+        <v>111.8518210812484</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,22 +1137,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.38128887478393</v>
+        <v>8.381288874783873</v>
       </c>
       <c r="D21">
-        <v>10.86082472530708</v>
+        <v>10.86082472530696</v>
       </c>
       <c r="E21">
-        <v>46.52179515305557</v>
+        <v>46.52179515305527</v>
       </c>
       <c r="F21">
-        <v>63.417462457447</v>
+        <v>63.41746245744653</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>47.27344611970062</v>
+        <v>47.27344611970023</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>35.44257507693352</v>
+        <v>35.4425750769333</v>
       </c>
       <c r="L21">
-        <v>111.8518210812489</v>
+        <v>111.8518210812484</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.38128887478393</v>
+        <v>8.381288874783873</v>
       </c>
       <c r="D22">
-        <v>10.86082472530708</v>
+        <v>10.86082472530696</v>
       </c>
       <c r="E22">
-        <v>46.52179515305557</v>
+        <v>46.52179515305527</v>
       </c>
       <c r="F22">
-        <v>63.417462457447</v>
+        <v>63.41746245744653</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>47.27344611970062</v>
+        <v>47.27344611970023</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>35.44257507693352</v>
+        <v>35.4425750769333</v>
       </c>
       <c r="L22">
-        <v>111.8518210812489</v>
+        <v>111.8518210812484</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,22 +1213,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.38128887478393</v>
+        <v>8.381288874783873</v>
       </c>
       <c r="D23">
-        <v>10.86082472530708</v>
+        <v>10.86082472530696</v>
       </c>
       <c r="E23">
-        <v>46.52179515305557</v>
+        <v>46.52179515305527</v>
       </c>
       <c r="F23">
-        <v>63.417462457447</v>
+        <v>63.41746245744653</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>47.27344611970062</v>
+        <v>47.27344611970023</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>35.44257507693352</v>
+        <v>35.4425750769333</v>
       </c>
       <c r="L23">
-        <v>111.8518210812489</v>
+        <v>111.8518210812484</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,22 +1251,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.38128887478393</v>
+        <v>8.381288874783873</v>
       </c>
       <c r="D24">
-        <v>10.86082472530708</v>
+        <v>10.86082472530696</v>
       </c>
       <c r="E24">
-        <v>46.52179515305557</v>
+        <v>46.52179515305527</v>
       </c>
       <c r="F24">
-        <v>63.417462457447</v>
+        <v>63.41746245744653</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>47.27344611970062</v>
+        <v>47.27344611970023</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>35.44257507693352</v>
+        <v>35.4425750769333</v>
       </c>
       <c r="L24">
-        <v>111.8518210812489</v>
+        <v>111.8518210812484</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,22 +1289,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.38128887478393</v>
+        <v>8.381288874783873</v>
       </c>
       <c r="D25">
-        <v>10.86082472530708</v>
+        <v>10.86082472530696</v>
       </c>
       <c r="E25">
-        <v>46.52179515305557</v>
+        <v>46.52179515305527</v>
       </c>
       <c r="F25">
-        <v>63.417462457447</v>
+        <v>63.41746245744653</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>47.27344611970062</v>
+        <v>47.27344611970023</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>35.44257507693352</v>
+        <v>35.4425750769333</v>
       </c>
       <c r="L25">
-        <v>111.8518210812489</v>
+        <v>111.8518210812484</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_36/res_line/loading_percent.xlsx
@@ -421,16 +421,16 @@
         <v>12.38514519445456</v>
       </c>
       <c r="E2">
-        <v>49.53245155127981</v>
+        <v>49.53245155127971</v>
       </c>
       <c r="F2">
-        <v>70.57147374007749</v>
+        <v>70.57147374007785</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>52.87386717313532</v>
+        <v>52.87386717313562</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>37.88866226359242</v>
+        <v>37.88866226359234</v>
       </c>
       <c r="L2">
         <v>118.7400289131769</v>
@@ -453,22 +453,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.658947300320962</v>
+        <v>7.658947300321044</v>
       </c>
       <c r="D3">
-        <v>8.978980414223555</v>
+        <v>8.978980414223614</v>
       </c>
       <c r="E3">
-        <v>42.45186421068202</v>
+        <v>42.45186421068201</v>
       </c>
       <c r="F3">
-        <v>54.38705465211275</v>
+        <v>54.38705465211346</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>40.23309701703749</v>
+        <v>40.23309701703796</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>32.19325194446029</v>
       </c>
       <c r="L3">
-        <v>102.3541678786064</v>
+        <v>102.3541678786065</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,22 +491,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.08856583159883</v>
+        <v>7.088565831598774</v>
       </c>
       <c r="D4">
-        <v>7.661378465867701</v>
+        <v>7.661378465867841</v>
       </c>
       <c r="E4">
-        <v>39.31228478906891</v>
+        <v>39.31228478906908</v>
       </c>
       <c r="F4">
-        <v>47.94800152727174</v>
+        <v>47.94800152727227</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>35.2291370218495</v>
+        <v>35.22913702184999</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>29.72419882947387</v>
+        <v>29.724198829474</v>
       </c>
       <c r="L4">
-        <v>94.92862848080141</v>
+        <v>94.92862848080168</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,22 +529,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.870594029987659</v>
+        <v>6.870594029987706</v>
       </c>
       <c r="D5">
-        <v>7.19083480935345</v>
+        <v>7.190834809353334</v>
       </c>
       <c r="E5">
-        <v>38.12201115001155</v>
+        <v>38.12201115001142</v>
       </c>
       <c r="F5">
-        <v>45.62917580163652</v>
+        <v>45.62917580163678</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>33.42964333732079</v>
+        <v>33.42964333732092</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>28.79541475314007</v>
+        <v>28.79541475313994</v>
       </c>
       <c r="L5">
-        <v>92.09710431754272</v>
+        <v>92.09710431754255</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,22 +567,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.834958529177595</v>
+        <v>6.834958529177496</v>
       </c>
       <c r="D6">
-        <v>7.115510225044226</v>
+        <v>7.115510225044027</v>
       </c>
       <c r="E6">
-        <v>37.92775954713415</v>
+        <v>37.92775954713417</v>
       </c>
       <c r="F6">
-        <v>45.25718865724949</v>
+        <v>45.25718865724952</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>33.1410672866111</v>
+        <v>33.14106728661107</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>28.64418626251613</v>
+        <v>28.64418626251614</v>
       </c>
       <c r="L6">
-        <v>91.63428166047525</v>
+        <v>91.6342816604753</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,22 +605,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.085583338548054</v>
+        <v>7.085583338547813</v>
       </c>
       <c r="D7">
-        <v>7.654823768240579</v>
+        <v>7.65482376824045</v>
       </c>
       <c r="E7">
-        <v>39.29597101955492</v>
+        <v>39.29597101955496</v>
       </c>
       <c r="F7">
-        <v>47.91576248329561</v>
+        <v>47.91576248329524</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>35.20411040884159</v>
+        <v>35.20411040884134</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>29.71144355698019</v>
+        <v>29.7114435569802</v>
       </c>
       <c r="L7">
-        <v>94.88987381746136</v>
+        <v>94.88987381746134</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,22 +643,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.381288874783873</v>
+        <v>8.38128887478393</v>
       </c>
       <c r="D8">
-        <v>10.86082472530696</v>
+        <v>10.86082472530708</v>
       </c>
       <c r="E8">
-        <v>46.52179515305527</v>
+        <v>46.52179515305557</v>
       </c>
       <c r="F8">
-        <v>63.41746245744653</v>
+        <v>63.417462457447</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>47.27344611970023</v>
+        <v>47.27344611970062</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>35.4425750769333</v>
+        <v>35.44257507693352</v>
       </c>
       <c r="L8">
-        <v>111.8518210812484</v>
+        <v>111.8518210812489</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,22 +681,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.381288874783873</v>
+        <v>8.38128887478393</v>
       </c>
       <c r="D9">
-        <v>10.86082472530696</v>
+        <v>10.86082472530708</v>
       </c>
       <c r="E9">
-        <v>46.52179515305527</v>
+        <v>46.52179515305557</v>
       </c>
       <c r="F9">
-        <v>63.41746245744653</v>
+        <v>63.417462457447</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>47.27344611970023</v>
+        <v>47.27344611970062</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>35.4425750769333</v>
+        <v>35.44257507693352</v>
       </c>
       <c r="L9">
-        <v>111.8518210812484</v>
+        <v>111.8518210812489</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,22 +719,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.381288874783873</v>
+        <v>8.38128887478393</v>
       </c>
       <c r="D10">
-        <v>10.86082472530696</v>
+        <v>10.86082472530708</v>
       </c>
       <c r="E10">
-        <v>46.52179515305527</v>
+        <v>46.52179515305557</v>
       </c>
       <c r="F10">
-        <v>63.41746245744653</v>
+        <v>63.417462457447</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>47.27344611970023</v>
+        <v>47.27344611970062</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>35.4425750769333</v>
+        <v>35.44257507693352</v>
       </c>
       <c r="L10">
-        <v>111.8518210812484</v>
+        <v>111.8518210812489</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,22 +757,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.381288874783873</v>
+        <v>8.38128887478393</v>
       </c>
       <c r="D11">
-        <v>10.86082472530696</v>
+        <v>10.86082472530708</v>
       </c>
       <c r="E11">
-        <v>46.52179515305527</v>
+        <v>46.52179515305557</v>
       </c>
       <c r="F11">
-        <v>63.41746245744653</v>
+        <v>63.417462457447</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>47.27344611970023</v>
+        <v>47.27344611970062</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>35.4425750769333</v>
+        <v>35.44257507693352</v>
       </c>
       <c r="L11">
-        <v>111.8518210812484</v>
+        <v>111.8518210812489</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,22 +795,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.381288874783873</v>
+        <v>8.38128887478393</v>
       </c>
       <c r="D12">
-        <v>10.86082472530696</v>
+        <v>10.86082472530708</v>
       </c>
       <c r="E12">
-        <v>46.52179515305527</v>
+        <v>46.52179515305557</v>
       </c>
       <c r="F12">
-        <v>63.41746245744653</v>
+        <v>63.417462457447</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>47.27344611970023</v>
+        <v>47.27344611970062</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>35.4425750769333</v>
+        <v>35.44257507693352</v>
       </c>
       <c r="L12">
-        <v>111.8518210812484</v>
+        <v>111.8518210812489</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,22 +833,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.381288874783873</v>
+        <v>8.38128887478393</v>
       </c>
       <c r="D13">
-        <v>10.86082472530696</v>
+        <v>10.86082472530708</v>
       </c>
       <c r="E13">
-        <v>46.52179515305527</v>
+        <v>46.52179515305557</v>
       </c>
       <c r="F13">
-        <v>63.41746245744653</v>
+        <v>63.417462457447</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>47.27344611970023</v>
+        <v>47.27344611970062</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>35.4425750769333</v>
+        <v>35.44257507693352</v>
       </c>
       <c r="L13">
-        <v>111.8518210812484</v>
+        <v>111.8518210812489</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,22 +871,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.381288874783873</v>
+        <v>8.38128887478393</v>
       </c>
       <c r="D14">
-        <v>10.86082472530696</v>
+        <v>10.86082472530708</v>
       </c>
       <c r="E14">
-        <v>46.52179515305527</v>
+        <v>46.52179515305557</v>
       </c>
       <c r="F14">
-        <v>63.41746245744653</v>
+        <v>63.417462457447</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>47.27344611970023</v>
+        <v>47.27344611970062</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>35.4425750769333</v>
+        <v>35.44257507693352</v>
       </c>
       <c r="L14">
-        <v>111.8518210812484</v>
+        <v>111.8518210812489</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.381288874783873</v>
+        <v>8.38128887478393</v>
       </c>
       <c r="D15">
-        <v>10.86082472530696</v>
+        <v>10.86082472530708</v>
       </c>
       <c r="E15">
-        <v>46.52179515305527</v>
+        <v>46.52179515305557</v>
       </c>
       <c r="F15">
-        <v>63.41746245744653</v>
+        <v>63.417462457447</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>47.27344611970023</v>
+        <v>47.27344611970062</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>35.4425750769333</v>
+        <v>35.44257507693352</v>
       </c>
       <c r="L15">
-        <v>111.8518210812484</v>
+        <v>111.8518210812489</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.381288874783873</v>
+        <v>8.38128887478393</v>
       </c>
       <c r="D16">
-        <v>10.86082472530696</v>
+        <v>10.86082472530708</v>
       </c>
       <c r="E16">
-        <v>46.52179515305527</v>
+        <v>46.52179515305557</v>
       </c>
       <c r="F16">
-        <v>63.41746245744653</v>
+        <v>63.417462457447</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>47.27344611970023</v>
+        <v>47.27344611970062</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>35.4425750769333</v>
+        <v>35.44257507693352</v>
       </c>
       <c r="L16">
-        <v>111.8518210812484</v>
+        <v>111.8518210812489</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,22 +985,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.381288874783873</v>
+        <v>8.38128887478393</v>
       </c>
       <c r="D17">
-        <v>10.86082472530696</v>
+        <v>10.86082472530708</v>
       </c>
       <c r="E17">
-        <v>46.52179515305527</v>
+        <v>46.52179515305557</v>
       </c>
       <c r="F17">
-        <v>63.41746245744653</v>
+        <v>63.417462457447</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>47.27344611970023</v>
+        <v>47.27344611970062</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>35.4425750769333</v>
+        <v>35.44257507693352</v>
       </c>
       <c r="L17">
-        <v>111.8518210812484</v>
+        <v>111.8518210812489</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.381288874783873</v>
+        <v>8.38128887478393</v>
       </c>
       <c r="D18">
-        <v>10.86082472530696</v>
+        <v>10.86082472530708</v>
       </c>
       <c r="E18">
-        <v>46.52179515305527</v>
+        <v>46.52179515305557</v>
       </c>
       <c r="F18">
-        <v>63.41746245744653</v>
+        <v>63.417462457447</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>47.27344611970023</v>
+        <v>47.27344611970062</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>35.4425750769333</v>
+        <v>35.44257507693352</v>
       </c>
       <c r="L18">
-        <v>111.8518210812484</v>
+        <v>111.8518210812489</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,22 +1061,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.381288874783873</v>
+        <v>8.38128887478393</v>
       </c>
       <c r="D19">
-        <v>10.86082472530696</v>
+        <v>10.86082472530708</v>
       </c>
       <c r="E19">
-        <v>46.52179515305527</v>
+        <v>46.52179515305557</v>
       </c>
       <c r="F19">
-        <v>63.41746245744653</v>
+        <v>63.417462457447</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>47.27344611970023</v>
+        <v>47.27344611970062</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>35.4425750769333</v>
+        <v>35.44257507693352</v>
       </c>
       <c r="L19">
-        <v>111.8518210812484</v>
+        <v>111.8518210812489</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.381288874783873</v>
+        <v>8.38128887478393</v>
       </c>
       <c r="D20">
-        <v>10.86082472530696</v>
+        <v>10.86082472530708</v>
       </c>
       <c r="E20">
-        <v>46.52179515305527</v>
+        <v>46.52179515305557</v>
       </c>
       <c r="F20">
-        <v>63.41746245744653</v>
+        <v>63.417462457447</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>47.27344611970023</v>
+        <v>47.27344611970062</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>35.4425750769333</v>
+        <v>35.44257507693352</v>
       </c>
       <c r="L20">
-        <v>111.8518210812484</v>
+        <v>111.8518210812489</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,22 +1137,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.381288874783873</v>
+        <v>8.38128887478393</v>
       </c>
       <c r="D21">
-        <v>10.86082472530696</v>
+        <v>10.86082472530708</v>
       </c>
       <c r="E21">
-        <v>46.52179515305527</v>
+        <v>46.52179515305557</v>
       </c>
       <c r="F21">
-        <v>63.41746245744653</v>
+        <v>63.417462457447</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>47.27344611970023</v>
+        <v>47.27344611970062</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>35.4425750769333</v>
+        <v>35.44257507693352</v>
       </c>
       <c r="L21">
-        <v>111.8518210812484</v>
+        <v>111.8518210812489</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.381288874783873</v>
+        <v>8.38128887478393</v>
       </c>
       <c r="D22">
-        <v>10.86082472530696</v>
+        <v>10.86082472530708</v>
       </c>
       <c r="E22">
-        <v>46.52179515305527</v>
+        <v>46.52179515305557</v>
       </c>
       <c r="F22">
-        <v>63.41746245744653</v>
+        <v>63.417462457447</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>47.27344611970023</v>
+        <v>47.27344611970062</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>35.4425750769333</v>
+        <v>35.44257507693352</v>
       </c>
       <c r="L22">
-        <v>111.8518210812484</v>
+        <v>111.8518210812489</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,22 +1213,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.381288874783873</v>
+        <v>8.38128887478393</v>
       </c>
       <c r="D23">
-        <v>10.86082472530696</v>
+        <v>10.86082472530708</v>
       </c>
       <c r="E23">
-        <v>46.52179515305527</v>
+        <v>46.52179515305557</v>
       </c>
       <c r="F23">
-        <v>63.41746245744653</v>
+        <v>63.417462457447</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>47.27344611970023</v>
+        <v>47.27344611970062</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>35.4425750769333</v>
+        <v>35.44257507693352</v>
       </c>
       <c r="L23">
-        <v>111.8518210812484</v>
+        <v>111.8518210812489</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,22 +1251,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.381288874783873</v>
+        <v>8.38128887478393</v>
       </c>
       <c r="D24">
-        <v>10.86082472530696</v>
+        <v>10.86082472530708</v>
       </c>
       <c r="E24">
-        <v>46.52179515305527</v>
+        <v>46.52179515305557</v>
       </c>
       <c r="F24">
-        <v>63.41746245744653</v>
+        <v>63.417462457447</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>47.27344611970023</v>
+        <v>47.27344611970062</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>35.4425750769333</v>
+        <v>35.44257507693352</v>
       </c>
       <c r="L24">
-        <v>111.8518210812484</v>
+        <v>111.8518210812489</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,22 +1289,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.381288874783873</v>
+        <v>8.38128887478393</v>
       </c>
       <c r="D25">
-        <v>10.86082472530696</v>
+        <v>10.86082472530708</v>
       </c>
       <c r="E25">
-        <v>46.52179515305527</v>
+        <v>46.52179515305557</v>
       </c>
       <c r="F25">
-        <v>63.41746245744653</v>
+        <v>63.417462457447</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>47.27344611970023</v>
+        <v>47.27344611970062</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>35.4425750769333</v>
+        <v>35.44257507693352</v>
       </c>
       <c r="L25">
-        <v>111.8518210812484</v>
+        <v>111.8518210812489</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_36/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.894203662882456</v>
+        <v>8.738443494822093</v>
       </c>
       <c r="D2">
-        <v>12.38514519445456</v>
+        <v>11.9372004608551</v>
       </c>
       <c r="E2">
-        <v>49.53245155127971</v>
+        <v>49.15583890718748</v>
       </c>
       <c r="F2">
-        <v>70.57147374007785</v>
+        <v>68.79779819024134</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.656751615533012</v>
       </c>
       <c r="H2">
-        <v>52.87386717313562</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>51.47212543173281</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>37.88866226359234</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>118.7400289131769</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>37.55331198062227</v>
+      </c>
+      <c r="M2">
+        <v>117.7242864889719</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.658947300321044</v>
+        <v>7.54831476751176</v>
       </c>
       <c r="D3">
-        <v>8.978980414223614</v>
+        <v>8.687816942164616</v>
       </c>
       <c r="E3">
-        <v>42.45186421068201</v>
+        <v>42.3353253559111</v>
       </c>
       <c r="F3">
-        <v>54.38705465211346</v>
+        <v>53.41260481361502</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.776284193331357</v>
       </c>
       <c r="H3">
-        <v>40.23309701703796</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>39.44785892208542</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>32.19325194446029</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>102.3541678786065</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>32.08120447328224</v>
+      </c>
+      <c r="M3">
+        <v>101.9309185650379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.088565831598774</v>
+        <v>6.986221382508065</v>
       </c>
       <c r="D4">
-        <v>7.661378465867841</v>
+        <v>7.393510863454873</v>
       </c>
       <c r="E4">
-        <v>39.31228478906908</v>
+        <v>39.23264282543797</v>
       </c>
       <c r="F4">
-        <v>47.94800152727227</v>
+        <v>47.13288963922518</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.82505291113625</v>
       </c>
       <c r="H4">
-        <v>35.22913702184999</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>34.56134771925481</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>29.724198829474</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>94.92862848080168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>29.64480367472843</v>
+      </c>
+      <c r="M4">
+        <v>94.59808529129954</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.870594029987706</v>
+        <v>6.770757554969602</v>
       </c>
       <c r="D5">
-        <v>7.190834809353334</v>
+        <v>6.929530930407159</v>
       </c>
       <c r="E5">
-        <v>38.12201115001142</v>
+        <v>38.05242187742585</v>
       </c>
       <c r="F5">
-        <v>45.62917580163678</v>
+        <v>44.86655818275072</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.842708744905015</v>
       </c>
       <c r="H5">
-        <v>33.42964333732092</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>32.79982699407265</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>28.79541475313994</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>92.09710431754255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>28.72506726385082</v>
+      </c>
+      <c r="M5">
+        <v>91.79299821183807</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.834958529177496</v>
+        <v>6.73550655713874</v>
       </c>
       <c r="D6">
-        <v>7.115510225044027</v>
+        <v>6.855194851985049</v>
       </c>
       <c r="E6">
-        <v>37.92775954713417</v>
+        <v>37.85966248048346</v>
       </c>
       <c r="F6">
-        <v>45.25718865724952</v>
+        <v>44.50289762497007</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.845546423749831</v>
       </c>
       <c r="H6">
-        <v>33.14106728661107</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>32.51724188547131</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>28.64418626251614</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>91.6342816604753</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>28.57518991695112</v>
+      </c>
+      <c r="M6">
+        <v>91.3341593968818</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.085583338547813</v>
+        <v>6.983275171223389</v>
       </c>
       <c r="D7">
-        <v>7.65482376824045</v>
+        <v>7.387052639495353</v>
       </c>
       <c r="E7">
-        <v>39.29597101955496</v>
+        <v>39.21647837852992</v>
       </c>
       <c r="F7">
-        <v>47.91576248329524</v>
+        <v>47.10139029022375</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.825298015730076</v>
       </c>
       <c r="H7">
-        <v>35.20411040884134</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>34.53685867815044</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>29.7114435569802</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>94.88987381746134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>29.63218216986366</v>
+      </c>
+      <c r="M7">
+        <v>94.5597186445209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.38128887478393</v>
+        <v>8.25289385312751</v>
       </c>
       <c r="D8">
-        <v>10.86082472530708</v>
+        <v>10.51237665193559</v>
       </c>
       <c r="E8">
-        <v>46.52179515305557</v>
+        <v>46.31149384335205</v>
       </c>
       <c r="F8">
-        <v>63.417462457447</v>
+        <v>62.12610591719384</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.708667078765208</v>
       </c>
       <c r="H8">
-        <v>47.27344611970062</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>46.24714447679356</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>35.44257507693352</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>111.8518210812489</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>35.24930476275217</v>
+      </c>
+      <c r="M8">
+        <v>111.2081031816293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.38128887478393</v>
+        <v>8.25289385312751</v>
       </c>
       <c r="D9">
-        <v>10.86082472530708</v>
+        <v>10.51237665193559</v>
       </c>
       <c r="E9">
-        <v>46.52179515305557</v>
+        <v>46.31149384335205</v>
       </c>
       <c r="F9">
-        <v>63.417462457447</v>
+        <v>62.12610591719384</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.708667078765208</v>
       </c>
       <c r="H9">
-        <v>47.27344611970062</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>46.24714447679356</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>35.44257507693352</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>111.8518210812489</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>35.24930476275217</v>
+      </c>
+      <c r="M9">
+        <v>111.2081031816293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.38128887478393</v>
+        <v>8.25289385312751</v>
       </c>
       <c r="D10">
-        <v>10.86082472530708</v>
+        <v>10.51237665193559</v>
       </c>
       <c r="E10">
-        <v>46.52179515305557</v>
+        <v>46.31149384335205</v>
       </c>
       <c r="F10">
-        <v>63.417462457447</v>
+        <v>62.12610591719384</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.708667078765208</v>
       </c>
       <c r="H10">
-        <v>47.27344611970062</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>46.24714447679356</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>35.44257507693352</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>111.8518210812489</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>35.24930476275217</v>
+      </c>
+      <c r="M10">
+        <v>111.2081031816293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.38128887478393</v>
+        <v>8.25289385312751</v>
       </c>
       <c r="D11">
-        <v>10.86082472530708</v>
+        <v>10.51237665193559</v>
       </c>
       <c r="E11">
-        <v>46.52179515305557</v>
+        <v>46.31149384335205</v>
       </c>
       <c r="F11">
-        <v>63.417462457447</v>
+        <v>62.12610591719384</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.708667078765208</v>
       </c>
       <c r="H11">
-        <v>47.27344611970062</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>46.24714447679356</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>35.44257507693352</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>111.8518210812489</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>35.24930476275217</v>
+      </c>
+      <c r="M11">
+        <v>111.2081031816293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.38128887478393</v>
+        <v>8.25289385312751</v>
       </c>
       <c r="D12">
-        <v>10.86082472530708</v>
+        <v>10.51237665193559</v>
       </c>
       <c r="E12">
-        <v>46.52179515305557</v>
+        <v>46.31149384335205</v>
       </c>
       <c r="F12">
-        <v>63.417462457447</v>
+        <v>62.12610591719384</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.708667078765208</v>
       </c>
       <c r="H12">
-        <v>47.27344611970062</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>46.24714447679356</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>35.44257507693352</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>111.8518210812489</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>35.24930476275217</v>
+      </c>
+      <c r="M12">
+        <v>111.2081031816293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.38128887478393</v>
+        <v>8.25289385312751</v>
       </c>
       <c r="D13">
-        <v>10.86082472530708</v>
+        <v>10.51237665193559</v>
       </c>
       <c r="E13">
-        <v>46.52179515305557</v>
+        <v>46.31149384335205</v>
       </c>
       <c r="F13">
-        <v>63.417462457447</v>
+        <v>62.12610591719384</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.708667078765208</v>
       </c>
       <c r="H13">
-        <v>47.27344611970062</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>46.24714447679356</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>35.44257507693352</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>111.8518210812489</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>35.24930476275217</v>
+      </c>
+      <c r="M13">
+        <v>111.2081031816293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.38128887478393</v>
+        <v>8.25289385312751</v>
       </c>
       <c r="D14">
-        <v>10.86082472530708</v>
+        <v>10.51237665193559</v>
       </c>
       <c r="E14">
-        <v>46.52179515305557</v>
+        <v>46.31149384335205</v>
       </c>
       <c r="F14">
-        <v>63.417462457447</v>
+        <v>62.12610591719384</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.708667078765208</v>
       </c>
       <c r="H14">
-        <v>47.27344611970062</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>46.24714447679356</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>35.44257507693352</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>111.8518210812489</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>35.24930476275217</v>
+      </c>
+      <c r="M14">
+        <v>111.2081031816293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.38128887478393</v>
+        <v>8.25289385312751</v>
       </c>
       <c r="D15">
-        <v>10.86082472530708</v>
+        <v>10.51237665193559</v>
       </c>
       <c r="E15">
-        <v>46.52179515305557</v>
+        <v>46.31149384335205</v>
       </c>
       <c r="F15">
-        <v>63.417462457447</v>
+        <v>62.12610591719384</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.708667078765208</v>
       </c>
       <c r="H15">
-        <v>47.27344611970062</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>46.24714447679356</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>35.44257507693352</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>111.8518210812489</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>35.24930476275217</v>
+      </c>
+      <c r="M15">
+        <v>111.2081031816293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.38128887478393</v>
+        <v>8.25289385312751</v>
       </c>
       <c r="D16">
-        <v>10.86082472530708</v>
+        <v>10.51237665193559</v>
       </c>
       <c r="E16">
-        <v>46.52179515305557</v>
+        <v>46.31149384335205</v>
       </c>
       <c r="F16">
-        <v>63.417462457447</v>
+        <v>62.12610591719384</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.708667078765208</v>
       </c>
       <c r="H16">
-        <v>47.27344611970062</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>46.24714447679356</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>35.44257507693352</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>111.8518210812489</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>35.24930476275217</v>
+      </c>
+      <c r="M16">
+        <v>111.2081031816293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.38128887478393</v>
+        <v>8.25289385312751</v>
       </c>
       <c r="D17">
-        <v>10.86082472530708</v>
+        <v>10.51237665193559</v>
       </c>
       <c r="E17">
-        <v>46.52179515305557</v>
+        <v>46.31149384335205</v>
       </c>
       <c r="F17">
-        <v>63.417462457447</v>
+        <v>62.12610591719384</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.708667078765208</v>
       </c>
       <c r="H17">
-        <v>47.27344611970062</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>46.24714447679356</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>35.44257507693352</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>111.8518210812489</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>35.24930476275217</v>
+      </c>
+      <c r="M17">
+        <v>111.2081031816293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.38128887478393</v>
+        <v>8.25289385312751</v>
       </c>
       <c r="D18">
-        <v>10.86082472530708</v>
+        <v>10.51237665193559</v>
       </c>
       <c r="E18">
-        <v>46.52179515305557</v>
+        <v>46.31149384335205</v>
       </c>
       <c r="F18">
-        <v>63.417462457447</v>
+        <v>62.12610591719384</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.708667078765208</v>
       </c>
       <c r="H18">
-        <v>47.27344611970062</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>46.24714447679356</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>35.44257507693352</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>111.8518210812489</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>35.24930476275217</v>
+      </c>
+      <c r="M18">
+        <v>111.2081031816293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.38128887478393</v>
+        <v>8.25289385312751</v>
       </c>
       <c r="D19">
-        <v>10.86082472530708</v>
+        <v>10.51237665193559</v>
       </c>
       <c r="E19">
-        <v>46.52179515305557</v>
+        <v>46.31149384335205</v>
       </c>
       <c r="F19">
-        <v>63.417462457447</v>
+        <v>62.12610591719384</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.708667078765208</v>
       </c>
       <c r="H19">
-        <v>47.27344611970062</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>46.24714447679356</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>35.44257507693352</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>111.8518210812489</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>35.24930476275217</v>
+      </c>
+      <c r="M19">
+        <v>111.2081031816293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.38128887478393</v>
+        <v>8.25289385312751</v>
       </c>
       <c r="D20">
-        <v>10.86082472530708</v>
+        <v>10.51237665193559</v>
       </c>
       <c r="E20">
-        <v>46.52179515305557</v>
+        <v>46.31149384335205</v>
       </c>
       <c r="F20">
-        <v>63.417462457447</v>
+        <v>62.12610591719384</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.708667078765208</v>
       </c>
       <c r="H20">
-        <v>47.27344611970062</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>46.24714447679356</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>35.44257507693352</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>111.8518210812489</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>35.24930476275217</v>
+      </c>
+      <c r="M20">
+        <v>111.2081031816293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.38128887478393</v>
+        <v>8.25289385312751</v>
       </c>
       <c r="D21">
-        <v>10.86082472530708</v>
+        <v>10.51237665193559</v>
       </c>
       <c r="E21">
-        <v>46.52179515305557</v>
+        <v>46.31149384335205</v>
       </c>
       <c r="F21">
-        <v>63.417462457447</v>
+        <v>62.12610591719384</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.708667078765208</v>
       </c>
       <c r="H21">
-        <v>47.27344611970062</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>46.24714447679356</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>35.44257507693352</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>111.8518210812489</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>35.24930476275217</v>
+      </c>
+      <c r="M21">
+        <v>111.2081031816293</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.38128887478393</v>
+        <v>8.25289385312751</v>
       </c>
       <c r="D22">
-        <v>10.86082472530708</v>
+        <v>10.51237665193559</v>
       </c>
       <c r="E22">
-        <v>46.52179515305557</v>
+        <v>46.31149384335205</v>
       </c>
       <c r="F22">
-        <v>63.417462457447</v>
+        <v>62.12610591719384</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.708667078765208</v>
       </c>
       <c r="H22">
-        <v>47.27344611970062</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>46.24714447679356</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>35.44257507693352</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>111.8518210812489</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>35.24930476275217</v>
+      </c>
+      <c r="M22">
+        <v>111.2081031816293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.38128887478393</v>
+        <v>8.25289385312751</v>
       </c>
       <c r="D23">
-        <v>10.86082472530708</v>
+        <v>10.51237665193559</v>
       </c>
       <c r="E23">
-        <v>46.52179515305557</v>
+        <v>46.31149384335205</v>
       </c>
       <c r="F23">
-        <v>63.417462457447</v>
+        <v>62.12610591719384</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.708667078765208</v>
       </c>
       <c r="H23">
-        <v>47.27344611970062</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>46.24714447679356</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>35.44257507693352</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>111.8518210812489</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>35.24930476275217</v>
+      </c>
+      <c r="M23">
+        <v>111.2081031816293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.38128887478393</v>
+        <v>8.25289385312751</v>
       </c>
       <c r="D24">
-        <v>10.86082472530708</v>
+        <v>10.51237665193559</v>
       </c>
       <c r="E24">
-        <v>46.52179515305557</v>
+        <v>46.31149384335205</v>
       </c>
       <c r="F24">
-        <v>63.417462457447</v>
+        <v>62.12610591719384</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.708667078765208</v>
       </c>
       <c r="H24">
-        <v>47.27344611970062</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>46.24714447679356</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>35.44257507693352</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>111.8518210812489</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>35.24930476275217</v>
+      </c>
+      <c r="M24">
+        <v>111.2081031816293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.38128887478393</v>
+        <v>8.25289385312751</v>
       </c>
       <c r="D25">
-        <v>10.86082472530708</v>
+        <v>10.51237665193559</v>
       </c>
       <c r="E25">
-        <v>46.52179515305557</v>
+        <v>46.31149384335205</v>
       </c>
       <c r="F25">
-        <v>63.417462457447</v>
+        <v>62.12610591719384</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.708667078765208</v>
       </c>
       <c r="H25">
-        <v>47.27344611970062</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>46.24714447679356</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>35.44257507693352</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>111.8518210812489</v>
+        <v>35.24930476275217</v>
+      </c>
+      <c r="M25">
+        <v>111.2081031816293</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_36/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.738443494822093</v>
+        <v>7.965398676887296</v>
       </c>
       <c r="D2">
-        <v>11.9372004608551</v>
+        <v>8.396501022695363</v>
       </c>
       <c r="E2">
-        <v>49.15583890718748</v>
+        <v>33.31020281170289</v>
       </c>
       <c r="F2">
-        <v>68.79779819024134</v>
+        <v>62.31633865474841</v>
       </c>
       <c r="G2">
-        <v>1.656751615533012</v>
+        <v>1.87371628450019</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>51.47212543173281</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>64.64639680394293</v>
       </c>
       <c r="L2">
-        <v>37.55331198062227</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>117.7242864889719</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>12.97015448643963</v>
+      </c>
+      <c r="O2">
+        <v>50.23650119905088</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.54831476751176</v>
+        <v>7.299710332747471</v>
       </c>
       <c r="D3">
-        <v>8.687816942164616</v>
+        <v>7.581061260233751</v>
       </c>
       <c r="E3">
-        <v>42.3353253559111</v>
+        <v>30.31765178696678</v>
       </c>
       <c r="F3">
-        <v>53.41260481361502</v>
+        <v>56.8011334530221</v>
       </c>
       <c r="G3">
-        <v>1.776284193331357</v>
+        <v>1.906552842375408</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>39.44785892208542</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>59.52686610384811</v>
       </c>
       <c r="L3">
-        <v>32.08120447328224</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>101.9309185650379</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>12.81472650190249</v>
+      </c>
+      <c r="O3">
+        <v>45.73960583766153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.986221382508065</v>
+        <v>6.88607128752362</v>
       </c>
       <c r="D4">
-        <v>7.393510863454873</v>
+        <v>7.087030609684946</v>
       </c>
       <c r="E4">
-        <v>39.23264282543797</v>
+        <v>28.48931727216673</v>
       </c>
       <c r="F4">
-        <v>47.13288963922518</v>
+        <v>53.43115173304549</v>
       </c>
       <c r="G4">
-        <v>1.82505291113625</v>
+        <v>1.926050124641271</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>34.56134771925481</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>56.3157121014159</v>
       </c>
       <c r="L4">
-        <v>29.64480367472843</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>94.59808529129954</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>12.72087472198214</v>
+      </c>
+      <c r="O4">
+        <v>42.99122644777165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.770757554969602</v>
+        <v>6.715538100247487</v>
       </c>
       <c r="D5">
-        <v>6.929530930407159</v>
+        <v>6.886037550452638</v>
       </c>
       <c r="E5">
-        <v>38.05242187742585</v>
+        <v>27.74169737970926</v>
       </c>
       <c r="F5">
-        <v>44.86655818275072</v>
+        <v>52.05491851175375</v>
       </c>
       <c r="G5">
-        <v>1.842708744905015</v>
+        <v>1.933892044238223</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>32.79982699407265</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>54.98518971683931</v>
       </c>
       <c r="L5">
-        <v>28.72506726385082</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>91.79299821183807</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>12.68317944706641</v>
+      </c>
+      <c r="O5">
+        <v>41.86853647618545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.73550655713874</v>
+        <v>6.68708412026681</v>
       </c>
       <c r="D6">
-        <v>6.855194851985049</v>
+        <v>6.852650332091486</v>
       </c>
       <c r="E6">
-        <v>37.85966248048346</v>
+        <v>27.61728531810439</v>
       </c>
       <c r="F6">
-        <v>44.50289762497007</v>
+        <v>51.82605238703161</v>
       </c>
       <c r="G6">
-        <v>1.845546423749831</v>
+        <v>1.935189481248193</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>32.51724188547131</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>54.76281268013066</v>
       </c>
       <c r="L6">
-        <v>28.57518991695112</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>91.3341593968818</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>12.67695708769939</v>
+      </c>
+      <c r="O6">
+        <v>41.68181159900255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.983275171223389</v>
+        <v>6.883780235975904</v>
       </c>
       <c r="D7">
-        <v>7.387052639495353</v>
+        <v>7.084320119736972</v>
       </c>
       <c r="E7">
-        <v>39.21647837852992</v>
+        <v>28.47925035836795</v>
       </c>
       <c r="F7">
-        <v>47.10139029022375</v>
+        <v>53.41261102544832</v>
       </c>
       <c r="G7">
-        <v>1.825298015730076</v>
+        <v>1.926156230699303</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>34.53685867815044</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>56.29786261936039</v>
       </c>
       <c r="L7">
-        <v>29.63218216986366</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>94.5597186445209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>12.72036395180348</v>
+      </c>
+      <c r="O7">
+        <v>42.97610292293614</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.25289385312751</v>
+        <v>7.736370919131506</v>
       </c>
       <c r="D8">
-        <v>10.51237665193559</v>
+        <v>8.113009274133038</v>
       </c>
       <c r="E8">
-        <v>46.31149384335205</v>
+        <v>32.27304750824143</v>
       </c>
       <c r="F8">
-        <v>62.12610591719384</v>
+        <v>60.40626855522913</v>
       </c>
       <c r="G8">
-        <v>1.708667078765208</v>
+        <v>1.885221042508367</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>46.24714447679356</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>62.89179359622715</v>
       </c>
       <c r="L8">
-        <v>35.24930476275217</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>111.2081031816293</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>12.91634171567736</v>
+      </c>
+      <c r="O8">
+        <v>48.67913413279854</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.25289385312751</v>
+        <v>9.420329659825812</v>
       </c>
       <c r="D9">
-        <v>10.51237665193559</v>
+        <v>10.278002244583</v>
       </c>
       <c r="E9">
-        <v>46.31149384335205</v>
+        <v>40.13380886093979</v>
       </c>
       <c r="F9">
-        <v>62.12610591719384</v>
+        <v>74.7594800247925</v>
       </c>
       <c r="G9">
-        <v>1.708667078765208</v>
+        <v>1.795202838699699</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>46.24714447679356</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>75.62826145173247</v>
       </c>
       <c r="L9">
-        <v>35.24930476275217</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>111.2081031816293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>13.30237376228195</v>
+      </c>
+      <c r="O9">
+        <v>60.38685425986439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.25289385312751</v>
+        <v>10.80339793557854</v>
       </c>
       <c r="D10">
-        <v>10.51237665193559</v>
+        <v>12.22529273625115</v>
       </c>
       <c r="E10">
-        <v>46.31149384335205</v>
+        <v>47.18014833085972</v>
       </c>
       <c r="F10">
-        <v>62.12610591719384</v>
+        <v>87.12613652679001</v>
       </c>
       <c r="G10">
-        <v>1.708667078765208</v>
+        <v>1.710683156995297</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>46.24714447679356</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>85.82004110090077</v>
       </c>
       <c r="L10">
-        <v>35.24930476275217</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>111.2081031816293</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>13.5549457560512</v>
+      </c>
+      <c r="O10">
+        <v>70.49561925801929</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.25289385312751</v>
+        <v>11.55941195242344</v>
       </c>
       <c r="D11">
-        <v>10.51237665193559</v>
+        <v>13.37905411138204</v>
       </c>
       <c r="E11">
-        <v>46.31149384335205</v>
+        <v>51.42281112450385</v>
       </c>
       <c r="F11">
-        <v>62.12610591719384</v>
+        <v>94.15899918001519</v>
       </c>
       <c r="G11">
-        <v>1.708667078765208</v>
+        <v>1.659461884502969</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>46.24714447679356</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>91.31014591262402</v>
       </c>
       <c r="L11">
-        <v>35.24930476275217</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>111.2081031816293</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>13.63803019569822</v>
+      </c>
+      <c r="O11">
+        <v>76.26037356423015</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.25289385312751</v>
+        <v>11.8940750307443</v>
       </c>
       <c r="D12">
-        <v>10.51237665193559</v>
+        <v>13.91671032932136</v>
       </c>
       <c r="E12">
-        <v>46.31149384335205</v>
+        <v>53.43801734944713</v>
       </c>
       <c r="F12">
-        <v>62.12610591719384</v>
+        <v>97.35059229280333</v>
       </c>
       <c r="G12">
-        <v>1.708667078765208</v>
+        <v>1.635389167947827</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>46.24714447679356</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>93.72971415413865</v>
       </c>
       <c r="L12">
-        <v>35.24930476275217</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>111.2081031816293</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>13.65613645508341</v>
+      </c>
+      <c r="O12">
+        <v>78.88173363062684</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.25289385312751</v>
+        <v>11.81853180858693</v>
       </c>
       <c r="D13">
-        <v>10.51237665193559</v>
+        <v>13.79367302336551</v>
       </c>
       <c r="E13">
-        <v>46.31149384335205</v>
+        <v>52.9740412098609</v>
       </c>
       <c r="F13">
-        <v>62.12610591719384</v>
+        <v>96.62535912769017</v>
       </c>
       <c r="G13">
-        <v>1.708667078765208</v>
+        <v>1.64090703853667</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>46.24714447679356</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>93.18384363619295</v>
       </c>
       <c r="L13">
-        <v>35.24930476275217</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>111.2081031816293</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>13.65323366430727</v>
+      </c>
+      <c r="O13">
+        <v>78.28574558240925</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.25289385312751</v>
+        <v>11.58556047320531</v>
       </c>
       <c r="D14">
-        <v>10.51237665193559</v>
+        <v>13.42039937701836</v>
       </c>
       <c r="E14">
-        <v>46.31149384335205</v>
+        <v>51.57671834662963</v>
       </c>
       <c r="F14">
-        <v>62.12610591719384</v>
+        <v>94.40646046608641</v>
       </c>
       <c r="G14">
-        <v>1.708667078765208</v>
+        <v>1.657614596850534</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>46.24714447679356</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>91.4993500666731</v>
       </c>
       <c r="L14">
-        <v>35.24930476275217</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>111.2081031816293</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>13.6399135896318</v>
+      </c>
+      <c r="O14">
+        <v>76.46349160133821</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.25289385312751</v>
+        <v>11.45105816916019</v>
       </c>
       <c r="D15">
-        <v>10.51237665193559</v>
+        <v>13.20884742691303</v>
       </c>
       <c r="E15">
-        <v>46.31149384335205</v>
+        <v>50.79085181117335</v>
       </c>
       <c r="F15">
-        <v>62.12610591719384</v>
+        <v>93.1368144795513</v>
       </c>
       <c r="G15">
-        <v>1.708667078765208</v>
+        <v>1.667059067101555</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>46.24714447679356</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>90.52574813756003</v>
       </c>
       <c r="L15">
-        <v>35.24930476275217</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>111.2081031816293</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>13.62944186992567</v>
+      </c>
+      <c r="O15">
+        <v>75.42157411678164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.25289385312751</v>
+        <v>10.75810372668349</v>
       </c>
       <c r="D16">
-        <v>10.51237665193559</v>
+        <v>12.1584644385698</v>
       </c>
       <c r="E16">
-        <v>46.31149384335205</v>
+        <v>46.93677776404655</v>
       </c>
       <c r="F16">
-        <v>62.12610591719384</v>
+        <v>86.71160660257613</v>
       </c>
       <c r="G16">
-        <v>1.708667078765208</v>
+        <v>1.713627778548912</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>46.24714447679356</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>85.489605728402</v>
       </c>
       <c r="L16">
-        <v>35.24930476275217</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>111.2081031816293</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>13.5484388169749</v>
+      </c>
+      <c r="O16">
+        <v>70.15625870936468</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.25289385312751</v>
+        <v>10.3754994656355</v>
       </c>
       <c r="D17">
-        <v>10.51237665193559</v>
+        <v>11.60297814001071</v>
       </c>
       <c r="E17">
-        <v>46.31149384335205</v>
+        <v>44.92025554969943</v>
       </c>
       <c r="F17">
-        <v>62.12610591719384</v>
+        <v>83.23752980253488</v>
       </c>
       <c r="G17">
-        <v>1.708667078765208</v>
+        <v>1.737993838768574</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>46.24714447679356</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>82.6901054036538</v>
       </c>
       <c r="L17">
-        <v>35.24930476275217</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>111.2081031816293</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>13.48785758530089</v>
+      </c>
+      <c r="O17">
+        <v>67.3137439469204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.25289385312751</v>
+        <v>10.16500589302514</v>
       </c>
       <c r="D18">
-        <v>10.51237665193559</v>
+        <v>11.30381828226852</v>
       </c>
       <c r="E18">
-        <v>46.31149384335205</v>
+        <v>43.83780423143099</v>
       </c>
       <c r="F18">
-        <v>62.12610591719384</v>
+        <v>81.34618863332021</v>
       </c>
       <c r="G18">
-        <v>1.708667078765208</v>
+        <v>1.751029113989341</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>46.24714447679356</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>81.14318350889576</v>
       </c>
       <c r="L18">
-        <v>35.24930476275217</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>111.2081031816293</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>13.45070328087216</v>
+      </c>
+      <c r="O18">
+        <v>65.76732941581682</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.25289385312751</v>
+        <v>10.09502920918959</v>
       </c>
       <c r="D19">
-        <v>10.51237665193559</v>
+        <v>11.20531584879209</v>
       </c>
       <c r="E19">
-        <v>46.31149384335205</v>
+        <v>43.48176351049149</v>
       </c>
       <c r="F19">
-        <v>62.12610591719384</v>
+        <v>80.72042323221173</v>
       </c>
       <c r="G19">
-        <v>1.708667078765208</v>
+        <v>1.755306898775927</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>46.24714447679356</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>80.62780214838978</v>
       </c>
       <c r="L19">
-        <v>35.24930476275217</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>111.2081031816293</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>13.43782079245358</v>
+      </c>
+      <c r="O19">
+        <v>65.25584082521728</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.25289385312751</v>
+        <v>10.41514544443531</v>
       </c>
       <c r="D20">
-        <v>10.51237665193559</v>
+        <v>11.65981904115613</v>
       </c>
       <c r="E20">
-        <v>46.31149384335205</v>
+        <v>45.12615615042201</v>
       </c>
       <c r="F20">
-        <v>62.12610591719384</v>
+        <v>83.59530498554702</v>
       </c>
       <c r="G20">
-        <v>1.708667078765208</v>
+        <v>1.735509968174455</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>46.24714447679356</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>82.98091160442601</v>
       </c>
       <c r="L20">
-        <v>35.24930476275217</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>111.2081031816293</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>13.49457056511357</v>
+      </c>
+      <c r="O20">
+        <v>67.60635392604368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.25289385312751</v>
+        <v>11.65210238985363</v>
       </c>
       <c r="D21">
-        <v>10.51237665193559</v>
+        <v>13.52610165542196</v>
       </c>
       <c r="E21">
-        <v>46.31149384335205</v>
+        <v>51.97094091044126</v>
       </c>
       <c r="F21">
-        <v>62.12610591719384</v>
+        <v>95.03760154434829</v>
       </c>
       <c r="G21">
-        <v>1.708667078765208</v>
+        <v>1.652888742769723</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>46.24714447679356</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>91.98068898767818</v>
       </c>
       <c r="L21">
-        <v>35.24930476275217</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>111.2081031816293</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>13.64436303631305</v>
+      </c>
+      <c r="O21">
+        <v>76.98163231859722</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.25289385312751</v>
+        <v>12.92659343290353</v>
       </c>
       <c r="D22">
-        <v>10.51237665193559</v>
+        <v>15.72745146500374</v>
       </c>
       <c r="E22">
-        <v>46.31149384335205</v>
+        <v>60.56159403501361</v>
       </c>
       <c r="F22">
-        <v>62.12610591719384</v>
+        <v>107.6278969409405</v>
       </c>
       <c r="G22">
-        <v>1.708667078765208</v>
+        <v>1.553841167816538</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>46.24714447679356</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>101.2140131416487</v>
       </c>
       <c r="L22">
-        <v>35.24930476275217</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>111.2081031816293</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>13.60493464724084</v>
+      </c>
+      <c r="O22">
+        <v>87.35389508742149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.25289385312751</v>
+        <v>12.13600967644444</v>
       </c>
       <c r="D23">
-        <v>10.51237665193559</v>
+        <v>14.31799983927803</v>
       </c>
       <c r="E23">
-        <v>46.31149384335205</v>
+        <v>54.96495875524536</v>
       </c>
       <c r="F23">
-        <v>62.12610591719384</v>
+        <v>99.69387377326905</v>
       </c>
       <c r="G23">
-        <v>1.708667078765208</v>
+        <v>1.617361368641567</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>46.24714447679356</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>95.47762535078994</v>
       </c>
       <c r="L23">
-        <v>35.24930476275217</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>111.2081031816293</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>13.66028031701916</v>
+      </c>
+      <c r="O23">
+        <v>80.80886354782353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.25289385312751</v>
+        <v>10.39719325827651</v>
       </c>
       <c r="D24">
-        <v>10.51237665193559</v>
+        <v>11.63406091754489</v>
       </c>
       <c r="E24">
-        <v>46.31149384335205</v>
+        <v>45.03283942961971</v>
       </c>
       <c r="F24">
-        <v>62.12610591719384</v>
+        <v>83.43323831135349</v>
       </c>
       <c r="G24">
-        <v>1.708667078765208</v>
+        <v>1.736635839736705</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>46.24714447679356</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>82.84925228757868</v>
       </c>
       <c r="L24">
-        <v>35.24930476275217</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>111.2081031816293</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>13.49154252259054</v>
+      </c>
+      <c r="O24">
+        <v>67.47380272415369</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.25289385312751</v>
+        <v>8.954161171712103</v>
       </c>
       <c r="D25">
-        <v>10.51237665193559</v>
+        <v>9.65891153338038</v>
       </c>
       <c r="E25">
-        <v>46.31149384335205</v>
+        <v>37.89683271428564</v>
       </c>
       <c r="F25">
-        <v>62.12610591719384</v>
+        <v>70.71353572206641</v>
       </c>
       <c r="G25">
-        <v>1.708667078765208</v>
+        <v>1.821424078207814</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>46.24714447679356</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>72.1402219358534</v>
       </c>
       <c r="L25">
-        <v>35.24930476275217</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>111.2081031816293</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>13.19978621763374</v>
+      </c>
+      <c r="O25">
+        <v>57.08492995905048</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_36/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.965398676887296</v>
+        <v>5.318102738081237</v>
       </c>
       <c r="D2">
-        <v>8.396501022695363</v>
+        <v>4.680638752384381</v>
       </c>
       <c r="E2">
-        <v>33.31020281170289</v>
+        <v>29.99896879469269</v>
       </c>
       <c r="F2">
-        <v>62.31633865474841</v>
+        <v>12.97883250060569</v>
       </c>
       <c r="G2">
-        <v>1.87371628450019</v>
+        <v>14.33086979006846</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>6.262803453638183</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>9.848875072457194</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>64.64639680394293</v>
+        <v>25.45724764491983</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.97015448643963</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>50.23650119905088</v>
+        <v>9.452373252493928</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.299710332747471</v>
+        <v>4.989981584993065</v>
       </c>
       <c r="D3">
-        <v>7.581061260233751</v>
+        <v>4.450703054369523</v>
       </c>
       <c r="E3">
-        <v>30.31765178696678</v>
+        <v>27.82476715555406</v>
       </c>
       <c r="F3">
-        <v>56.8011334530221</v>
+        <v>12.64165107469595</v>
       </c>
       <c r="G3">
-        <v>1.906552842375408</v>
+        <v>13.8007412523314</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6.380648355822754</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>9.758324848103369</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>59.52686610384811</v>
+        <v>23.87574561501152</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.81472650190249</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>45.73960583766153</v>
+        <v>9.505332171340676</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.88607128752362</v>
+        <v>4.777149589308979</v>
       </c>
       <c r="D4">
-        <v>7.087030609684946</v>
+        <v>4.303071725225189</v>
       </c>
       <c r="E4">
-        <v>28.48931727216673</v>
+        <v>26.42583374150988</v>
       </c>
       <c r="F4">
-        <v>53.43115173304549</v>
+        <v>12.45915226606158</v>
       </c>
       <c r="G4">
-        <v>1.926050124641271</v>
+        <v>13.51988509155666</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>6.461643336975296</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>9.723192205108562</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>56.3157121014159</v>
+        <v>22.85056681383671</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.72087472198214</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>42.99122644777165</v>
+        <v>9.561581832012829</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.715538100247487</v>
+        <v>4.687567475725546</v>
       </c>
       <c r="D5">
-        <v>6.886037550452638</v>
+        <v>4.241331574446147</v>
       </c>
       <c r="E5">
-        <v>27.74169737970926</v>
+        <v>25.83935489481491</v>
       </c>
       <c r="F5">
-        <v>52.05491851175375</v>
+        <v>12.39086736466875</v>
       </c>
       <c r="G5">
-        <v>1.933892044238223</v>
+        <v>13.41659030817631</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6.496677320481664</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>9.713779381943183</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>54.98518971683931</v>
+        <v>22.41923175465923</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.68317944706641</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>41.86853647618545</v>
+        <v>9.590038614677207</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.68708412026681</v>
+        <v>4.672520509395121</v>
       </c>
       <c r="D6">
-        <v>6.852650332091486</v>
+        <v>4.23098571046125</v>
       </c>
       <c r="E6">
-        <v>27.61728531810439</v>
+        <v>25.74097094625472</v>
       </c>
       <c r="F6">
-        <v>51.82605238703161</v>
+        <v>12.37989291109176</v>
       </c>
       <c r="G6">
-        <v>1.935189481248193</v>
+        <v>13.40010753161236</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>6.502613198647037</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>9.712505091104832</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>54.76281268013066</v>
+        <v>22.34679146071527</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.67695708769939</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>41.68181159900255</v>
+        <v>9.595085510450724</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.883780235975904</v>
+        <v>4.775952986452248</v>
       </c>
       <c r="D7">
-        <v>7.084320119736972</v>
+        <v>4.302245407235357</v>
       </c>
       <c r="E7">
-        <v>28.47925035836795</v>
+        <v>26.41799110119933</v>
       </c>
       <c r="F7">
-        <v>53.41261102544832</v>
+        <v>12.45820685753929</v>
       </c>
       <c r="G7">
-        <v>1.926156230699303</v>
+        <v>13.51844703707108</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>6.462107787753125</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>9.723045739962458</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>56.29786261936039</v>
+        <v>22.84480452592931</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.72036395180348</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>42.97610292293614</v>
+        <v>9.561943771370904</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.736370919131506</v>
+        <v>5.207327388456677</v>
       </c>
       <c r="D8">
-        <v>8.113009274133038</v>
+        <v>4.602718584891765</v>
       </c>
       <c r="E8">
-        <v>32.27304750824143</v>
+        <v>29.262382534982</v>
       </c>
       <c r="F8">
-        <v>60.40626855522913</v>
+        <v>12.85744342046198</v>
       </c>
       <c r="G8">
-        <v>1.885221042508367</v>
+        <v>14.13881162580457</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>6.301552761579349</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>9.813267133724748</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>62.89179359622715</v>
+        <v>24.92319809779157</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.91634171567736</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>48.67913413279854</v>
+        <v>9.465447317201928</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.420329659825812</v>
+        <v>5.963060556690999</v>
       </c>
       <c r="D9">
-        <v>10.278002244583</v>
+        <v>5.139307510096751</v>
       </c>
       <c r="E9">
-        <v>40.13380886093979</v>
+        <v>34.34813446684454</v>
       </c>
       <c r="F9">
-        <v>74.7594800247925</v>
+        <v>13.83669722211293</v>
       </c>
       <c r="G9">
-        <v>1.795202838699699</v>
+        <v>15.70693659410957</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>6.062421042185167</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>10.16208326638642</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>75.62826145173247</v>
+        <v>28.56893729494704</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.30237376228195</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>60.38685425986439</v>
+        <v>9.483581339958752</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.80339793557854</v>
+        <v>6.463588456240825</v>
       </c>
       <c r="D10">
-        <v>12.22529273625115</v>
+        <v>5.499993553831885</v>
       </c>
       <c r="E10">
-        <v>47.18014833085972</v>
+        <v>37.80807961437968</v>
       </c>
       <c r="F10">
-        <v>87.12613652679001</v>
+        <v>14.67599861652397</v>
       </c>
       <c r="G10">
-        <v>1.710683156995297</v>
+        <v>17.19961214390612</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>5.94386869663376</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>10.53405833182425</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>85.82004110090077</v>
+        <v>30.98644496133869</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>13.5549457560512</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>70.49561925801929</v>
+        <v>9.64801182325947</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.55941195242344</v>
+        <v>6.679536845456056</v>
       </c>
       <c r="D11">
-        <v>13.37905411138204</v>
+        <v>5.65660711281933</v>
       </c>
       <c r="E11">
-        <v>51.42281112450385</v>
+        <v>39.32787119333307</v>
       </c>
       <c r="F11">
-        <v>94.15899918001519</v>
+        <v>15.08346571356019</v>
       </c>
       <c r="G11">
-        <v>1.659461884502969</v>
+        <v>17.95203170885276</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>5.90504029681809</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>10.73014380870693</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>91.31014591262402</v>
+        <v>32.03019302171106</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>13.63803019569822</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>76.26037356423015</v>
+        <v>9.760297304039387</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.8940750307443</v>
+        <v>6.75963519688168</v>
       </c>
       <c r="D12">
-        <v>13.91671032932136</v>
+        <v>5.714829733518455</v>
       </c>
       <c r="E12">
-        <v>53.43801734944713</v>
+        <v>39.8961334902237</v>
       </c>
       <c r="F12">
-        <v>97.35059229280333</v>
+        <v>15.24141284787673</v>
       </c>
       <c r="G12">
-        <v>1.635389167947827</v>
+        <v>18.24065609566566</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5.892752985831089</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>10.80836721081821</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>93.72971415413865</v>
+        <v>32.41745325953018</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.65613645508341</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>78.88173363062684</v>
+        <v>9.808533790680265</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.81853180858693</v>
+        <v>6.742458933569151</v>
       </c>
       <c r="D13">
-        <v>13.79367302336551</v>
+        <v>5.702338758869175</v>
       </c>
       <c r="E13">
-        <v>52.9740412098609</v>
+        <v>39.77406125054125</v>
       </c>
       <c r="F13">
-        <v>96.62535912769017</v>
+        <v>15.20723445182093</v>
       </c>
       <c r="G13">
-        <v>1.64090703853667</v>
+        <v>18.17833371981803</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.895287768119874</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>10.79134236783878</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>93.18384363619295</v>
+        <v>32.33440373814126</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.65323366430727</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>78.28574558240925</v>
+        <v>9.797886283409957</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.58556047320531</v>
+        <v>6.686160109063771</v>
       </c>
       <c r="D14">
-        <v>13.42039937701836</v>
+        <v>5.661418882023106</v>
       </c>
       <c r="E14">
-        <v>51.57671834662963</v>
+        <v>39.37476447243888</v>
       </c>
       <c r="F14">
-        <v>94.40646046608641</v>
+        <v>15.0963872232611</v>
       </c>
       <c r="G14">
-        <v>1.657614596850534</v>
+        <v>17.9757038209758</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>5.903979535525564</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>10.73649919739644</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>91.4993500666731</v>
+        <v>32.06221274342651</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13.6399135896318</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>76.46349160133821</v>
+        <v>9.764149487110622</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.45105816916019</v>
+        <v>6.651457508966558</v>
       </c>
       <c r="D15">
-        <v>13.20884742691303</v>
+        <v>5.636212936983372</v>
       </c>
       <c r="E15">
-        <v>50.79085181117335</v>
+        <v>39.12925652695206</v>
       </c>
       <c r="F15">
-        <v>93.1368144795513</v>
+        <v>15.02896404574134</v>
       </c>
       <c r="G15">
-        <v>1.667059067101555</v>
+        <v>17.85206388436756</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>5.909625661504181</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>10.70342597168904</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>90.52574813756003</v>
+        <v>31.89445030339003</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>13.62944186992567</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>75.42157411678164</v>
+        <v>9.744238027336786</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.75810372668349</v>
+        <v>6.449240386666591</v>
       </c>
       <c r="D16">
-        <v>12.1584644385698</v>
+        <v>5.489607321644244</v>
       </c>
       <c r="E16">
-        <v>46.93677776404655</v>
+        <v>37.70771252335458</v>
       </c>
       <c r="F16">
-        <v>86.71160660257613</v>
+        <v>14.64988238987142</v>
       </c>
       <c r="G16">
-        <v>1.713627778548912</v>
+        <v>17.15096739473961</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>5.946730669294967</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>10.5217939794618</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>85.489605728402</v>
+        <v>30.91711230029285</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13.5484388169749</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>70.15625870936468</v>
+        <v>9.641456963966091</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.3754994656355</v>
+        <v>6.322186687922625</v>
       </c>
       <c r="D17">
-        <v>11.60297814001071</v>
+        <v>5.397749131110747</v>
       </c>
       <c r="E17">
-        <v>44.92025554969943</v>
+        <v>36.82213500174619</v>
       </c>
       <c r="F17">
-        <v>83.23752980253488</v>
+        <v>14.42387008990894</v>
       </c>
       <c r="G17">
-        <v>1.737993838768574</v>
+        <v>16.72766267820665</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.973530451151128</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>10.41733379000558</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>82.6901054036538</v>
+        <v>30.30324985737343</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.48785758530089</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>67.3137439469204</v>
+        <v>9.588251959913062</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.16500589302514</v>
+        <v>6.248002452867</v>
       </c>
       <c r="D18">
-        <v>11.30381828226852</v>
+        <v>5.344212471060115</v>
       </c>
       <c r="E18">
-        <v>43.83780423143099</v>
+        <v>36.30764144130309</v>
       </c>
       <c r="F18">
-        <v>81.34618863332021</v>
+        <v>14.29629209802464</v>
       </c>
       <c r="G18">
-        <v>1.751029113989341</v>
+        <v>16.48675981138884</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.990350777970328</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>10.35977564505512</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>81.14318350889576</v>
+        <v>29.94489759579859</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.45070328087216</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>65.76732941581682</v>
+        <v>9.561161486980794</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.09502920918959</v>
+        <v>6.222694602167357</v>
       </c>
       <c r="D19">
-        <v>11.20531584879209</v>
+        <v>5.325965644065151</v>
       </c>
       <c r="E19">
-        <v>43.48176351049149</v>
+        <v>36.13254578004693</v>
       </c>
       <c r="F19">
-        <v>80.72042323221173</v>
+        <v>14.25351308860765</v>
       </c>
       <c r="G19">
-        <v>1.755306898775927</v>
+        <v>16.40564359856187</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>5.996280096783899</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>10.34071745168767</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>80.62780214838978</v>
+        <v>29.82265793251474</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.43782079245358</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>65.25584082521728</v>
+        <v>9.55258153091628</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.41514544443531</v>
+        <v>6.335826188589508</v>
       </c>
       <c r="D20">
-        <v>11.65981904115613</v>
+        <v>5.407600360421768</v>
       </c>
       <c r="E20">
-        <v>45.12615615042201</v>
+        <v>36.91693376116078</v>
       </c>
       <c r="F20">
-        <v>83.59530498554702</v>
+        <v>14.44767952357721</v>
       </c>
       <c r="G20">
-        <v>1.735509968174455</v>
+        <v>16.7724599265892</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>5.970530349920926</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>10.42819163265187</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>82.98091160442601</v>
+        <v>30.3691420499443</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.49457056511357</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>67.60635392604368</v>
+        <v>9.593549767516002</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.65210238985363</v>
+        <v>6.702741833039387</v>
       </c>
       <c r="D21">
-        <v>13.52610165542196</v>
+        <v>5.673467509063934</v>
       </c>
       <c r="E21">
-        <v>51.97094091044126</v>
+        <v>39.49223978212855</v>
       </c>
       <c r="F21">
-        <v>95.03760154434829</v>
+        <v>15.12884703517922</v>
       </c>
       <c r="G21">
-        <v>1.652888742769723</v>
+        <v>18.03512205657668</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>5.901358956532955</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>10.75249948010987</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>91.98068898767818</v>
+        <v>32.14237793177137</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.64436303631305</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>76.98163231859722</v>
+        <v>9.773901300639855</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.92659343290353</v>
+        <v>6.932777032731038</v>
       </c>
       <c r="D22">
-        <v>15.72745146500374</v>
+        <v>5.840909509736406</v>
       </c>
       <c r="E22">
-        <v>60.56159403501361</v>
+        <v>41.13338961959759</v>
       </c>
       <c r="F22">
-        <v>107.6278969409405</v>
+        <v>15.71783611097798</v>
       </c>
       <c r="G22">
-        <v>1.553841167816538</v>
+        <v>18.88186578047311</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>5.870358182822717</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>11.15195483282808</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>101.2140131416487</v>
+        <v>33.25479125533785</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13.60493464724084</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>87.35389508742149</v>
+        <v>9.925207766966471</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>12.13600967644444</v>
+        <v>6.81089184456131</v>
       </c>
       <c r="D23">
-        <v>14.31799983927803</v>
+        <v>5.752122925634493</v>
       </c>
       <c r="E23">
-        <v>54.96495875524536</v>
+        <v>40.26112234559661</v>
       </c>
       <c r="F23">
-        <v>99.69387377326905</v>
+        <v>15.3718633772901</v>
       </c>
       <c r="G23">
-        <v>1.617361368641567</v>
+        <v>18.42802381936983</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>5.885519439287684</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>10.88537351108222</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>95.47762535078994</v>
+        <v>32.66530428328943</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.66028031701916</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>80.80886354782353</v>
+        <v>9.8412980597785</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.39719325827651</v>
+        <v>6.329663320122466</v>
       </c>
       <c r="D24">
-        <v>11.63406091754489</v>
+        <v>5.403148880668231</v>
       </c>
       <c r="E24">
-        <v>45.03283942961971</v>
+        <v>36.87409198715296</v>
       </c>
       <c r="F24">
-        <v>83.43323831135349</v>
+        <v>14.43690792594511</v>
       </c>
       <c r="G24">
-        <v>1.736635839736705</v>
+        <v>16.75219940881493</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>5.971882313563128</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>10.4232750313597</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>82.84925228757868</v>
+        <v>30.33936912201021</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.49154252259054</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>67.47380272415369</v>
+        <v>9.591143759193226</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.954161171712103</v>
+        <v>5.768255019693703</v>
       </c>
       <c r="D25">
-        <v>9.65891153338038</v>
+        <v>4.999955734053142</v>
       </c>
       <c r="E25">
-        <v>37.89683271428564</v>
+        <v>33.02269214250112</v>
       </c>
       <c r="F25">
-        <v>70.71353572206641</v>
+        <v>13.55064778515515</v>
       </c>
       <c r="G25">
-        <v>1.821424078207814</v>
+        <v>15.24578386129348</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>6.117935139161989</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>10.04808093428836</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>72.1402219358534</v>
+        <v>27.62866399899383</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.19978621763374</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>57.08492995905048</v>
+        <v>9.453839161446439</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_36/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.318102738081237</v>
+        <v>3.479168461094797</v>
       </c>
       <c r="D2">
-        <v>4.680638752384381</v>
+        <v>3.917626312918256</v>
       </c>
       <c r="E2">
-        <v>29.99896879469269</v>
+        <v>16.58652060621377</v>
       </c>
       <c r="F2">
-        <v>12.97883250060569</v>
+        <v>18.09493953642914</v>
       </c>
       <c r="G2">
-        <v>14.33086979006846</v>
+        <v>18.10443107543747</v>
       </c>
       <c r="H2">
-        <v>6.262803453638183</v>
+        <v>11.61406522871387</v>
       </c>
       <c r="I2">
-        <v>9.848875072457194</v>
+        <v>15.58329534938068</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>25.45724764491983</v>
+        <v>15.28291200518011</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>9.452373252493928</v>
+        <v>16.24382269447874</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.989981584993065</v>
+        <v>3.334030883129838</v>
       </c>
       <c r="D3">
-        <v>4.450703054369523</v>
+        <v>3.824017570080299</v>
       </c>
       <c r="E3">
-        <v>27.82476715555406</v>
+        <v>15.64034333264192</v>
       </c>
       <c r="F3">
-        <v>12.64165107469595</v>
+        <v>18.17882040490029</v>
       </c>
       <c r="G3">
-        <v>13.8007412523314</v>
+        <v>18.23446903175893</v>
       </c>
       <c r="H3">
-        <v>6.380648355822754</v>
+        <v>11.6869573045741</v>
       </c>
       <c r="I3">
-        <v>9.758324848103369</v>
+        <v>15.67646889796573</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>23.87574561501152</v>
+        <v>14.44354404531966</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>9.505332171340676</v>
+        <v>16.36920664856004</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.777149589308979</v>
+        <v>3.241884465073563</v>
       </c>
       <c r="D4">
-        <v>4.303071725225189</v>
+        <v>3.764962751397979</v>
       </c>
       <c r="E4">
-        <v>26.42583374150988</v>
+        <v>15.03397231761195</v>
       </c>
       <c r="F4">
-        <v>12.45915226606158</v>
+        <v>18.238730847159</v>
       </c>
       <c r="G4">
-        <v>13.51988509155666</v>
+        <v>18.3275543380983</v>
       </c>
       <c r="H4">
-        <v>6.461643336975296</v>
+        <v>11.73459581261667</v>
       </c>
       <c r="I4">
-        <v>9.723192205108562</v>
+        <v>15.73959680174709</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>22.85056681383671</v>
+        <v>13.90105350252084</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>9.561581832012829</v>
+        <v>16.4522880202233</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.687567475725546</v>
+        <v>3.203624529060056</v>
       </c>
       <c r="D5">
-        <v>4.241331574446147</v>
+        <v>3.740524086403425</v>
       </c>
       <c r="E5">
-        <v>25.83935489481491</v>
+        <v>14.78074727210228</v>
       </c>
       <c r="F5">
-        <v>12.39086736466875</v>
+        <v>18.26524059356407</v>
       </c>
       <c r="G5">
-        <v>13.41659030817631</v>
+        <v>18.36876672000908</v>
       </c>
       <c r="H5">
-        <v>6.496677320481664</v>
+        <v>11.75473273051641</v>
       </c>
       <c r="I5">
-        <v>9.713779381943183</v>
+        <v>15.76680026855475</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>22.41923175465923</v>
+        <v>13.6733117896379</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>9.590038614677207</v>
+        <v>16.48766811150018</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.672520509395121</v>
+        <v>3.197230315997795</v>
       </c>
       <c r="D6">
-        <v>4.23098571046125</v>
+        <v>3.736444234958253</v>
       </c>
       <c r="E6">
-        <v>25.74097094625472</v>
+        <v>14.73833841836699</v>
       </c>
       <c r="F6">
-        <v>12.37989291109176</v>
+        <v>18.26976854470446</v>
       </c>
       <c r="G6">
-        <v>13.40010753161236</v>
+        <v>18.37580657105059</v>
       </c>
       <c r="H6">
-        <v>6.502613198647037</v>
+        <v>11.75812014080846</v>
       </c>
       <c r="I6">
-        <v>9.712505091104832</v>
+        <v>15.77140637631168</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>22.34679146071527</v>
+        <v>13.63509733905048</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>9.595085510450724</v>
+        <v>16.49363472261561</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.775952986452248</v>
+        <v>3.241371276384765</v>
       </c>
       <c r="D7">
-        <v>4.302245407235357</v>
+        <v>3.764634642393869</v>
       </c>
       <c r="E7">
-        <v>26.41799110119933</v>
+        <v>15.0305816402524</v>
       </c>
       <c r="F7">
-        <v>12.45820685753929</v>
+        <v>18.23907990607315</v>
       </c>
       <c r="G7">
-        <v>13.51844703707108</v>
+        <v>18.32809693233771</v>
       </c>
       <c r="H7">
-        <v>6.462107787753125</v>
+        <v>11.73486445662579</v>
       </c>
       <c r="I7">
-        <v>9.723045739962458</v>
+        <v>15.73995770486408</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>22.84480452592931</v>
+        <v>13.89800889882719</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>9.561943771370904</v>
+        <v>16.45275901058077</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.207327388456677</v>
+        <v>3.429783779463988</v>
       </c>
       <c r="D8">
-        <v>4.602718584891765</v>
+        <v>3.885691378627899</v>
       </c>
       <c r="E8">
-        <v>29.262382534982</v>
+        <v>16.26569776804289</v>
       </c>
       <c r="F8">
-        <v>12.85744342046198</v>
+        <v>18.12210596255715</v>
       </c>
       <c r="G8">
-        <v>14.13881162580457</v>
+        <v>18.14649012048138</v>
       </c>
       <c r="H8">
-        <v>6.301552761579349</v>
+        <v>11.63859955536826</v>
       </c>
       <c r="I8">
-        <v>9.813267133724748</v>
+        <v>15.61418709479035</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>24.92319809779157</v>
+        <v>14.99920400270334</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>9.465447317201928</v>
+        <v>16.28578463901969</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.963060556690999</v>
+        <v>3.773216698685664</v>
       </c>
       <c r="D9">
-        <v>5.139307510096751</v>
+        <v>4.109596906727188</v>
       </c>
       <c r="E9">
-        <v>34.34813446684454</v>
+        <v>18.59163789771513</v>
       </c>
       <c r="F9">
-        <v>13.83669722211293</v>
+        <v>17.9602064399366</v>
       </c>
       <c r="G9">
-        <v>15.70693659410957</v>
+        <v>17.89758358237699</v>
       </c>
       <c r="H9">
-        <v>6.062421042185167</v>
+        <v>11.47274059897726</v>
       </c>
       <c r="I9">
-        <v>10.16208326638642</v>
+        <v>15.41496040492272</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>28.56893729494704</v>
+        <v>16.93850863735358</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>9.483581339958752</v>
+        <v>16.0071153267247</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.463588456240825</v>
+        <v>4.007407071021973</v>
       </c>
       <c r="D10">
-        <v>5.499993553831885</v>
+        <v>4.264702393678498</v>
       </c>
       <c r="E10">
-        <v>37.80807961437968</v>
+        <v>20.2435151697773</v>
       </c>
       <c r="F10">
-        <v>14.67599861652397</v>
+        <v>17.88339917965543</v>
       </c>
       <c r="G10">
-        <v>17.19961214390612</v>
+        <v>17.78287062533785</v>
       </c>
       <c r="H10">
-        <v>5.94386869663376</v>
+        <v>11.36491790857209</v>
       </c>
       <c r="I10">
-        <v>10.53405833182425</v>
+        <v>15.29809172234518</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>30.98644496133869</v>
+        <v>18.22405192039199</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>9.64801182325947</v>
+        <v>15.83267095950727</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.679536845456056</v>
+        <v>4.11392849930784</v>
       </c>
       <c r="D11">
-        <v>5.65660711281933</v>
+        <v>4.333005233089537</v>
       </c>
       <c r="E11">
-        <v>39.32787119333307</v>
+        <v>20.95250246555571</v>
       </c>
       <c r="F11">
-        <v>15.08346571356019</v>
+        <v>17.85779950714607</v>
       </c>
       <c r="G11">
-        <v>17.95203170885276</v>
+        <v>17.74602708329904</v>
       </c>
       <c r="H11">
-        <v>5.90504029681809</v>
+        <v>11.31892895191193</v>
       </c>
       <c r="I11">
-        <v>10.73014380870693</v>
+        <v>15.2514576902609</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>32.03019302171106</v>
+        <v>18.77793647231413</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>9.760297304039387</v>
+        <v>15.76001468908334</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.75963519688168</v>
+        <v>4.155743757859213</v>
       </c>
       <c r="D12">
-        <v>5.714829733518455</v>
+        <v>4.358529204140212</v>
       </c>
       <c r="E12">
-        <v>39.8961334902237</v>
+        <v>21.21490853597217</v>
       </c>
       <c r="F12">
-        <v>15.24141284787673</v>
+        <v>17.84946261183281</v>
       </c>
       <c r="G12">
-        <v>18.24065609566566</v>
+        <v>17.73432122259554</v>
       </c>
       <c r="H12">
-        <v>5.892752985831089</v>
+        <v>11.30195563854382</v>
       </c>
       <c r="I12">
-        <v>10.80836721081821</v>
+        <v>15.23474779383734</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>32.41745325953018</v>
+        <v>18.98319136502883</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>9.808533790680265</v>
+        <v>15.73347569991225</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.742458933569151</v>
+        <v>4.146777896284066</v>
       </c>
       <c r="D13">
-        <v>5.702338758869175</v>
+        <v>4.353047566226368</v>
       </c>
       <c r="E13">
-        <v>39.77406125054125</v>
+        <v>21.15866421536343</v>
       </c>
       <c r="F13">
-        <v>15.20723445182093</v>
+        <v>17.85119754300649</v>
       </c>
       <c r="G13">
-        <v>18.17833371981803</v>
+        <v>17.73674179835134</v>
       </c>
       <c r="H13">
-        <v>5.895287768119874</v>
+        <v>11.30559147291057</v>
       </c>
       <c r="I13">
-        <v>10.79134236783878</v>
+        <v>15.23830418119174</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>32.33440373814126</v>
+        <v>18.93918628516183</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>9.797886283409957</v>
+        <v>15.7391478338092</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.686160109063771</v>
+        <v>4.117386589821782</v>
       </c>
       <c r="D14">
-        <v>5.661418882023106</v>
+        <v>4.335112025694587</v>
       </c>
       <c r="E14">
-        <v>39.37476447243888</v>
+        <v>20.97421227147661</v>
       </c>
       <c r="F14">
-        <v>15.0963872232611</v>
+        <v>17.8570863509883</v>
       </c>
       <c r="G14">
-        <v>17.9757038209758</v>
+        <v>17.74501880531143</v>
       </c>
       <c r="H14">
-        <v>5.903979535525564</v>
+        <v>11.31752368494023</v>
       </c>
       <c r="I14">
-        <v>10.73649919739644</v>
+        <v>15.25006387094789</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>32.06221274342651</v>
+        <v>18.79491309572161</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>9.764149487110622</v>
+        <v>15.75781171909384</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.651457508966558</v>
+        <v>4.09926715823089</v>
       </c>
       <c r="D15">
-        <v>5.636212936983372</v>
+        <v>4.324081137898547</v>
       </c>
       <c r="E15">
-        <v>39.12925652695206</v>
+        <v>20.86044036717169</v>
       </c>
       <c r="F15">
-        <v>15.02896404574134</v>
+        <v>17.86087054960368</v>
       </c>
       <c r="G15">
-        <v>17.85206388436756</v>
+        <v>17.75038233377145</v>
       </c>
       <c r="H15">
-        <v>5.909625661504181</v>
+        <v>11.32489008328908</v>
       </c>
       <c r="I15">
-        <v>10.70342597168904</v>
+        <v>15.25739096475798</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>31.89445030339003</v>
+        <v>18.70595587638921</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.744238027336786</v>
+        <v>15.76937110836276</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.449240386666591</v>
+        <v>4.000637166813752</v>
       </c>
       <c r="D16">
-        <v>5.489607321644244</v>
+        <v>4.260191813313216</v>
       </c>
       <c r="E16">
-        <v>37.70771252335458</v>
+        <v>20.19632966225459</v>
       </c>
       <c r="F16">
-        <v>14.64988238987142</v>
+        <v>17.88526135804374</v>
       </c>
       <c r="G16">
-        <v>17.15096739473961</v>
+        <v>17.78559062830045</v>
       </c>
       <c r="H16">
-        <v>5.946730669294967</v>
+        <v>11.36798511305388</v>
       </c>
       <c r="I16">
-        <v>10.5217939794618</v>
+        <v>15.30127166027683</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>30.91711230029285</v>
+        <v>18.18722818067449</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.641456963966091</v>
+        <v>15.83755496226383</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.322186687922625</v>
+        <v>3.940822754900111</v>
       </c>
       <c r="D17">
-        <v>5.397749131110747</v>
+        <v>4.220407904388013</v>
       </c>
       <c r="E17">
-        <v>36.82213500174619</v>
+        <v>19.7780682639319</v>
       </c>
       <c r="F17">
-        <v>14.42387008990894</v>
+        <v>17.90262699979846</v>
       </c>
       <c r="G17">
-        <v>16.72766267820665</v>
+        <v>17.81114838050631</v>
       </c>
       <c r="H17">
-        <v>5.973530451151128</v>
+        <v>11.39520744881882</v>
       </c>
       <c r="I17">
-        <v>10.41733379000558</v>
+        <v>15.32987101124024</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>30.30324985737343</v>
+        <v>17.86105267000377</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>9.588251959913062</v>
+        <v>15.88110718418184</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.248002452867</v>
+        <v>3.906015300692447</v>
       </c>
       <c r="D18">
-        <v>5.344212471060115</v>
+        <v>4.197313852843833</v>
       </c>
       <c r="E18">
-        <v>36.30764144130309</v>
+        <v>19.53349684052681</v>
       </c>
       <c r="F18">
-        <v>14.29629209802464</v>
+        <v>17.91349365609069</v>
       </c>
       <c r="G18">
-        <v>16.48675981138884</v>
+        <v>17.82729020703168</v>
       </c>
       <c r="H18">
-        <v>5.990350777970328</v>
+        <v>11.41115294540311</v>
       </c>
       <c r="I18">
-        <v>10.35977564505512</v>
+        <v>15.34693463810678</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>29.94489759579859</v>
+        <v>17.67053702900286</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>9.561161486980794</v>
+        <v>15.90678717448599</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.222694602167357</v>
+        <v>3.894161584912663</v>
       </c>
       <c r="D19">
-        <v>5.325965644065151</v>
+        <v>4.189458822683044</v>
       </c>
       <c r="E19">
-        <v>36.13254578004693</v>
+        <v>19.45000137802718</v>
       </c>
       <c r="F19">
-        <v>14.25351308860765</v>
+        <v>17.91732333653463</v>
       </c>
       <c r="G19">
-        <v>16.40564359856187</v>
+        <v>17.83300188185563</v>
       </c>
       <c r="H19">
-        <v>5.996280096783899</v>
+        <v>11.41660121927718</v>
       </c>
       <c r="I19">
-        <v>10.34071745168767</v>
+        <v>15.35281723097731</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>29.82265793251474</v>
+        <v>17.60553374975147</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>9.55258153091628</v>
+        <v>15.91558983233579</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.335826188589508</v>
+        <v>3.947232088439949</v>
       </c>
       <c r="D20">
-        <v>5.407600360421768</v>
+        <v>4.224664972626229</v>
       </c>
       <c r="E20">
-        <v>36.91693376116078</v>
+        <v>19.82300649213283</v>
       </c>
       <c r="F20">
-        <v>14.44767952357721</v>
+        <v>17.9006873808811</v>
       </c>
       <c r="G20">
-        <v>16.7724599265892</v>
+        <v>17.80827820317952</v>
       </c>
       <c r="H20">
-        <v>5.970530349920926</v>
+        <v>11.39227977329284</v>
       </c>
       <c r="I20">
-        <v>10.42819163265187</v>
+        <v>15.32676293517373</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>30.3691420499443</v>
+        <v>17.89607593981938</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>9.593549767516002</v>
+        <v>15.87640570389503</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.702741833039387</v>
+        <v>4.126043803092162</v>
       </c>
       <c r="D21">
-        <v>5.673467509063934</v>
+        <v>4.340389503112812</v>
       </c>
       <c r="E21">
-        <v>39.49223978212855</v>
+        <v>21.02855480466343</v>
       </c>
       <c r="F21">
-        <v>15.12884703517922</v>
+        <v>17.85531972769803</v>
       </c>
       <c r="G21">
-        <v>18.03512205657668</v>
+        <v>17.74252639059977</v>
       </c>
       <c r="H21">
-        <v>5.901358956532955</v>
+        <v>11.31400690358553</v>
       </c>
       <c r="I21">
-        <v>10.75249948010987</v>
+        <v>15.24658391690631</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>32.14237793177137</v>
+        <v>18.83741175577979</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>9.773901300639855</v>
+        <v>15.75230315100799</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.932777032731038</v>
+        <v>4.246085528761705</v>
       </c>
       <c r="D22">
-        <v>5.840909509736406</v>
+        <v>4.41402890263292</v>
       </c>
       <c r="E22">
-        <v>41.13338961959759</v>
+        <v>21.78107332677352</v>
       </c>
       <c r="F22">
-        <v>15.71783611097798</v>
+        <v>17.83358536947</v>
       </c>
       <c r="G22">
-        <v>18.88186578047311</v>
+        <v>17.71266107680089</v>
       </c>
       <c r="H22">
-        <v>5.870358182822717</v>
+        <v>11.26542649009976</v>
       </c>
       <c r="I22">
-        <v>11.15195483282808</v>
+        <v>15.19972078184904</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>33.25479125533785</v>
+        <v>19.42645001719906</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>9.925207766966471</v>
+        <v>15.6768795280164</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.81089184456131</v>
+        <v>4.182495709525043</v>
       </c>
       <c r="D23">
-        <v>5.752122925634493</v>
+        <v>4.374913633149544</v>
       </c>
       <c r="E23">
-        <v>40.26112234559661</v>
+        <v>21.38266596490005</v>
       </c>
       <c r="F23">
-        <v>15.3718633772901</v>
+        <v>17.84445680569581</v>
       </c>
       <c r="G23">
-        <v>18.42802381936983</v>
+        <v>17.72738914519061</v>
       </c>
       <c r="H23">
-        <v>5.885519439287684</v>
+        <v>11.29111854857986</v>
       </c>
       <c r="I23">
-        <v>10.88537351108222</v>
+        <v>15.22422237363608</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>32.66530428328943</v>
+        <v>19.11447622493725</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>9.8412980597785</v>
+        <v>15.71661071408861</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.329663320122466</v>
+        <v>3.94433573299126</v>
       </c>
       <c r="D24">
-        <v>5.403148880668231</v>
+        <v>4.222741041504537</v>
       </c>
       <c r="E24">
-        <v>36.87409198715296</v>
+        <v>19.80270271593401</v>
       </c>
       <c r="F24">
-        <v>14.43690792594511</v>
+        <v>17.90156153337551</v>
       </c>
       <c r="G24">
-        <v>16.75219940881493</v>
+        <v>17.80957130188604</v>
       </c>
       <c r="H24">
-        <v>5.971882313563128</v>
+        <v>11.39360245652267</v>
       </c>
       <c r="I24">
-        <v>10.4232750313597</v>
+        <v>15.32816616121954</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>30.33936912201021</v>
+        <v>17.88025123866248</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>9.591143759193226</v>
+        <v>15.87852924645903</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.768255019693703</v>
+        <v>3.683350909743294</v>
       </c>
       <c r="D25">
-        <v>4.999955734053142</v>
+        <v>4.05059579862901</v>
       </c>
       <c r="E25">
-        <v>33.02269214250112</v>
+        <v>17.94544277659102</v>
       </c>
       <c r="F25">
-        <v>13.55064778515515</v>
+        <v>17.99667256326437</v>
       </c>
       <c r="G25">
-        <v>15.24578386129348</v>
+        <v>17.95314272212814</v>
       </c>
       <c r="H25">
-        <v>6.117935139161989</v>
+        <v>11.51515020872947</v>
       </c>
       <c r="I25">
-        <v>10.04808093428836</v>
+        <v>15.46371848264007</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>27.62866399899383</v>
+        <v>16.43804160077563</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>9.453839161446439</v>
+        <v>16.07722437957745</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_36/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.479168461094797</v>
+        <v>5.318102738081175</v>
       </c>
       <c r="D2">
-        <v>3.917626312918256</v>
+        <v>4.680638752384461</v>
       </c>
       <c r="E2">
-        <v>16.58652060621377</v>
+        <v>29.99896879469267</v>
       </c>
       <c r="F2">
-        <v>18.09493953642914</v>
+        <v>12.97883250060562</v>
       </c>
       <c r="G2">
-        <v>18.10443107543747</v>
+        <v>14.33086979006844</v>
       </c>
       <c r="H2">
-        <v>11.61406522871387</v>
+        <v>6.262803453638122</v>
       </c>
       <c r="I2">
-        <v>15.58329534938068</v>
+        <v>9.84887507245719</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.28291200518011</v>
+        <v>25.45724764491987</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.24382269447874</v>
+        <v>9.452373252493881</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.334030883129838</v>
+        <v>4.989981584992997</v>
       </c>
       <c r="D3">
-        <v>3.824017570080299</v>
+        <v>4.450703054369587</v>
       </c>
       <c r="E3">
-        <v>15.64034333264192</v>
+        <v>27.82476715555413</v>
       </c>
       <c r="F3">
-        <v>18.17882040490029</v>
+        <v>12.64165107469585</v>
       </c>
       <c r="G3">
-        <v>18.23446903175893</v>
+        <v>13.80074125233131</v>
       </c>
       <c r="H3">
-        <v>11.6869573045741</v>
+        <v>6.380648355822697</v>
       </c>
       <c r="I3">
-        <v>15.67646889796573</v>
+        <v>9.758324848103353</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.44354404531966</v>
+        <v>23.87574561501156</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.36920664856004</v>
+        <v>9.505332171340605</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.241884465073563</v>
+        <v>4.777149589308882</v>
       </c>
       <c r="D4">
-        <v>3.764962751397979</v>
+        <v>4.30307172522514</v>
       </c>
       <c r="E4">
-        <v>15.03397231761195</v>
+        <v>26.42583374150991</v>
       </c>
       <c r="F4">
-        <v>18.238730847159</v>
+        <v>12.45915226606145</v>
       </c>
       <c r="G4">
-        <v>18.3275543380983</v>
+        <v>13.51988509155646</v>
       </c>
       <c r="H4">
-        <v>11.73459581261667</v>
+        <v>6.461643336975238</v>
       </c>
       <c r="I4">
-        <v>15.73959680174709</v>
+        <v>9.723192205108441</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.90105350252084</v>
+        <v>22.85056681383673</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.4522880202233</v>
+        <v>9.56158183201268</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.203624529060056</v>
+        <v>4.687567475725515</v>
       </c>
       <c r="D5">
-        <v>3.740524086403425</v>
+        <v>4.241331574446273</v>
       </c>
       <c r="E5">
-        <v>14.78074727210228</v>
+        <v>25.83935489481492</v>
       </c>
       <c r="F5">
-        <v>18.26524059356407</v>
+        <v>12.3908673646687</v>
       </c>
       <c r="G5">
-        <v>18.36876672000908</v>
+        <v>13.41659030817637</v>
       </c>
       <c r="H5">
-        <v>11.75473273051641</v>
+        <v>6.496677320481667</v>
       </c>
       <c r="I5">
-        <v>15.76680026855475</v>
+        <v>9.713779381943196</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.6733117896379</v>
+        <v>22.41923175465921</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.48766811150018</v>
+        <v>9.590038614677223</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.197230315997795</v>
+        <v>4.672520509395121</v>
       </c>
       <c r="D6">
-        <v>3.736444234958253</v>
+        <v>4.230985710461295</v>
       </c>
       <c r="E6">
-        <v>14.73833841836699</v>
+        <v>25.74097094625478</v>
       </c>
       <c r="F6">
-        <v>18.26976854470446</v>
+        <v>12.37989291109174</v>
       </c>
       <c r="G6">
-        <v>18.37580657105059</v>
+        <v>13.40010753161239</v>
       </c>
       <c r="H6">
-        <v>11.75812014080846</v>
+        <v>6.502613198647043</v>
       </c>
       <c r="I6">
-        <v>15.77140637631168</v>
+        <v>9.712505091104848</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.63509733905048</v>
+        <v>22.34679146071529</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.49363472261561</v>
+        <v>9.595085510450769</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.241371276384765</v>
+        <v>4.775952986452314</v>
       </c>
       <c r="D7">
-        <v>3.764634642393869</v>
+        <v>4.302245407235423</v>
       </c>
       <c r="E7">
-        <v>15.0305816402524</v>
+        <v>26.41799110119932</v>
       </c>
       <c r="F7">
-        <v>18.23907990607315</v>
+        <v>12.45820685753926</v>
       </c>
       <c r="G7">
-        <v>18.32809693233771</v>
+        <v>13.518447037071</v>
       </c>
       <c r="H7">
-        <v>11.73486445662579</v>
+        <v>6.462107787753178</v>
       </c>
       <c r="I7">
-        <v>15.73995770486408</v>
+        <v>9.723045739962446</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.89800889882719</v>
+        <v>22.84480452592928</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.45275901058077</v>
+        <v>9.561943771370938</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.429783779463988</v>
+        <v>5.207327388456724</v>
       </c>
       <c r="D8">
-        <v>3.885691378627899</v>
+        <v>4.602718584891784</v>
       </c>
       <c r="E8">
-        <v>16.26569776804289</v>
+        <v>29.26238253498202</v>
       </c>
       <c r="F8">
-        <v>18.12210596255715</v>
+        <v>12.85744342046191</v>
       </c>
       <c r="G8">
-        <v>18.14649012048138</v>
+        <v>14.13881162580456</v>
       </c>
       <c r="H8">
-        <v>11.63859955536826</v>
+        <v>6.301552761579178</v>
       </c>
       <c r="I8">
-        <v>15.61418709479035</v>
+        <v>9.813267133724667</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.99920400270334</v>
+        <v>24.92319809779158</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.28578463901969</v>
+        <v>9.465447317201846</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.773216698685664</v>
+        <v>5.963060556691026</v>
       </c>
       <c r="D9">
-        <v>4.109596906727188</v>
+        <v>5.139307510096698</v>
       </c>
       <c r="E9">
-        <v>18.59163789771513</v>
+        <v>34.3481344668445</v>
       </c>
       <c r="F9">
-        <v>17.9602064399366</v>
+        <v>13.836697222113</v>
       </c>
       <c r="G9">
-        <v>17.89758358237699</v>
+        <v>15.70693659410962</v>
       </c>
       <c r="H9">
-        <v>11.47274059897726</v>
+        <v>6.062421042185228</v>
       </c>
       <c r="I9">
-        <v>15.41496040492272</v>
+        <v>10.16208326638645</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.93850863735358</v>
+        <v>28.56893729494702</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.0071153267247</v>
+        <v>9.483581339958818</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.007407071021973</v>
+        <v>6.463588456240857</v>
       </c>
       <c r="D10">
-        <v>4.264702393678498</v>
+        <v>5.499993553831914</v>
       </c>
       <c r="E10">
-        <v>20.2435151697773</v>
+        <v>37.80807961437977</v>
       </c>
       <c r="F10">
-        <v>17.88339917965543</v>
+        <v>14.67599861652398</v>
       </c>
       <c r="G10">
-        <v>17.78287062533785</v>
+        <v>17.19961214390614</v>
       </c>
       <c r="H10">
-        <v>11.36491790857209</v>
+        <v>5.943868696633766</v>
       </c>
       <c r="I10">
-        <v>15.29809172234518</v>
+        <v>10.53405833182427</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.22405192039199</v>
+        <v>30.98644496133866</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.83267095950727</v>
+        <v>9.648011823259491</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.11392849930784</v>
+        <v>6.679536845456058</v>
       </c>
       <c r="D11">
-        <v>4.333005233089537</v>
+        <v>5.656607112819306</v>
       </c>
       <c r="E11">
-        <v>20.95250246555571</v>
+        <v>39.327871193333</v>
       </c>
       <c r="F11">
-        <v>17.85779950714607</v>
+        <v>15.08346571356022</v>
       </c>
       <c r="G11">
-        <v>17.74602708329904</v>
+        <v>17.95203170885271</v>
       </c>
       <c r="H11">
-        <v>11.31892895191193</v>
+        <v>5.90504029681809</v>
       </c>
       <c r="I11">
-        <v>15.2514576902609</v>
+        <v>10.73014380870698</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>18.77793647231413</v>
+        <v>32.03019302171101</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.76001468908334</v>
+        <v>9.760297304039447</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.155743757859213</v>
+        <v>6.759635196881654</v>
       </c>
       <c r="D12">
-        <v>4.358529204140212</v>
+        <v>5.714829733518502</v>
       </c>
       <c r="E12">
-        <v>21.21490853597217</v>
+        <v>39.89613349022365</v>
       </c>
       <c r="F12">
-        <v>17.84946261183281</v>
+        <v>15.24141284787671</v>
       </c>
       <c r="G12">
-        <v>17.73432122259554</v>
+        <v>18.24065609566578</v>
       </c>
       <c r="H12">
-        <v>11.30195563854382</v>
+        <v>5.892752985831002</v>
       </c>
       <c r="I12">
-        <v>15.23474779383734</v>
+        <v>10.80836721081818</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>18.98319136502883</v>
+        <v>32.41745325953023</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.73347569991225</v>
+        <v>9.808533790680208</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.146777896284066</v>
+        <v>6.742458933569225</v>
       </c>
       <c r="D13">
-        <v>4.353047566226368</v>
+        <v>5.702338758869154</v>
       </c>
       <c r="E13">
-        <v>21.15866421536343</v>
+        <v>39.7740612505413</v>
       </c>
       <c r="F13">
-        <v>17.85119754300649</v>
+        <v>15.20723445182094</v>
       </c>
       <c r="G13">
-        <v>17.73674179835134</v>
+        <v>18.17833371981805</v>
       </c>
       <c r="H13">
-        <v>11.30559147291057</v>
+        <v>5.895287768119824</v>
       </c>
       <c r="I13">
-        <v>15.23830418119174</v>
+        <v>10.79134236783878</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>18.93918628516183</v>
+        <v>32.33440373814124</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.7391478338092</v>
+        <v>9.797886283409953</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.117386589821782</v>
+        <v>6.686160109063673</v>
       </c>
       <c r="D14">
-        <v>4.335112025694587</v>
+        <v>5.661418882023106</v>
       </c>
       <c r="E14">
-        <v>20.97421227147661</v>
+        <v>39.37476447243898</v>
       </c>
       <c r="F14">
-        <v>17.8570863509883</v>
+        <v>15.09638722326113</v>
       </c>
       <c r="G14">
-        <v>17.74501880531143</v>
+        <v>17.97570382097594</v>
       </c>
       <c r="H14">
-        <v>11.31752368494023</v>
+        <v>5.903979535525583</v>
       </c>
       <c r="I14">
-        <v>15.25006387094789</v>
+        <v>10.73649919739647</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>18.79491309572161</v>
+        <v>32.06221274342654</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.75781171909384</v>
+        <v>9.76414948711064</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.09926715823089</v>
+        <v>6.651457508966534</v>
       </c>
       <c r="D15">
-        <v>4.324081137898547</v>
+        <v>5.636212936983394</v>
       </c>
       <c r="E15">
-        <v>20.86044036717169</v>
+        <v>39.12925652695209</v>
       </c>
       <c r="F15">
-        <v>17.86087054960368</v>
+        <v>15.02896404574133</v>
       </c>
       <c r="G15">
-        <v>17.75038233377145</v>
+        <v>17.85206388436747</v>
       </c>
       <c r="H15">
-        <v>11.32489008328908</v>
+        <v>5.909625661504216</v>
       </c>
       <c r="I15">
-        <v>15.25739096475798</v>
+        <v>10.70342597168904</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>18.70595587638921</v>
+        <v>31.89445030339003</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.76937110836276</v>
+        <v>9.744238027336792</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.000637166813752</v>
+        <v>6.449240386666533</v>
       </c>
       <c r="D16">
-        <v>4.260191813313216</v>
+        <v>5.489607321644288</v>
       </c>
       <c r="E16">
-        <v>20.19632966225459</v>
+        <v>37.70771252335454</v>
       </c>
       <c r="F16">
-        <v>17.88526135804374</v>
+        <v>14.6498823898714</v>
       </c>
       <c r="G16">
-        <v>17.78559062830045</v>
+        <v>17.15096739473963</v>
       </c>
       <c r="H16">
-        <v>11.36798511305388</v>
+        <v>5.946730669294921</v>
       </c>
       <c r="I16">
-        <v>15.30127166027683</v>
+        <v>10.52179397946179</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.18722818067449</v>
+        <v>30.91711230029285</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.83755496226383</v>
+        <v>9.641456963966064</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.940822754900111</v>
+        <v>6.32218668792264</v>
       </c>
       <c r="D17">
-        <v>4.220407904388013</v>
+        <v>5.397749131110698</v>
       </c>
       <c r="E17">
-        <v>19.7780682639319</v>
+        <v>36.82213500174623</v>
       </c>
       <c r="F17">
-        <v>17.90262699979846</v>
+        <v>14.42387008990888</v>
       </c>
       <c r="G17">
-        <v>17.81114838050631</v>
+        <v>16.72766267820669</v>
       </c>
       <c r="H17">
-        <v>11.39520744881882</v>
+        <v>5.973530451150991</v>
       </c>
       <c r="I17">
-        <v>15.32987101124024</v>
+        <v>10.41733379000548</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>17.86105267000377</v>
+        <v>30.30324985737351</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.88110718418184</v>
+        <v>9.588251959912943</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.906015300692447</v>
+        <v>6.248002452866974</v>
       </c>
       <c r="D18">
-        <v>4.197313852843833</v>
+        <v>5.344212471060189</v>
       </c>
       <c r="E18">
-        <v>19.53349684052681</v>
+        <v>36.30764144130307</v>
       </c>
       <c r="F18">
-        <v>17.91349365609069</v>
+        <v>14.29629209802458</v>
       </c>
       <c r="G18">
-        <v>17.82729020703168</v>
+        <v>16.48675981138886</v>
       </c>
       <c r="H18">
-        <v>11.41115294540311</v>
+        <v>5.990350777970328</v>
       </c>
       <c r="I18">
-        <v>15.34693463810678</v>
+        <v>10.3597756450551</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.67053702900286</v>
+        <v>29.94489759579861</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.90678717448599</v>
+        <v>9.561161486980756</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.894161584912663</v>
+        <v>6.222694602167341</v>
       </c>
       <c r="D19">
-        <v>4.189458822683044</v>
+        <v>5.325965644065102</v>
       </c>
       <c r="E19">
-        <v>19.45000137802718</v>
+        <v>36.13254578004693</v>
       </c>
       <c r="F19">
-        <v>17.91732333653463</v>
+        <v>14.25351308860765</v>
       </c>
       <c r="G19">
-        <v>17.83300188185563</v>
+        <v>16.40564359856179</v>
       </c>
       <c r="H19">
-        <v>11.41660121927718</v>
+        <v>5.996280096783855</v>
       </c>
       <c r="I19">
-        <v>15.35281723097731</v>
+        <v>10.34071745168767</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.60553374975147</v>
+        <v>29.82265793251475</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.91558983233579</v>
+        <v>9.552581530916262</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.947232088439949</v>
+        <v>6.33582618858958</v>
       </c>
       <c r="D20">
-        <v>4.224664972626229</v>
+        <v>5.407600360421854</v>
       </c>
       <c r="E20">
-        <v>19.82300649213283</v>
+        <v>36.91693376116086</v>
       </c>
       <c r="F20">
-        <v>17.9006873808811</v>
+        <v>14.44767952357714</v>
       </c>
       <c r="G20">
-        <v>17.80827820317952</v>
+        <v>16.77245992658923</v>
       </c>
       <c r="H20">
-        <v>11.39227977329284</v>
+        <v>5.970530349920873</v>
       </c>
       <c r="I20">
-        <v>15.32676293517373</v>
+        <v>10.42819163265181</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.89607593981938</v>
+        <v>30.36914204994432</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.87640570389503</v>
+        <v>9.59354976751594</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.126043803092162</v>
+        <v>6.702741833039486</v>
       </c>
       <c r="D21">
-        <v>4.340389503112812</v>
+        <v>5.673467509063954</v>
       </c>
       <c r="E21">
-        <v>21.02855480466343</v>
+        <v>39.49223978212843</v>
       </c>
       <c r="F21">
-        <v>17.85531972769803</v>
+        <v>15.12884703517923</v>
       </c>
       <c r="G21">
-        <v>17.74252639059977</v>
+        <v>18.03512205657674</v>
       </c>
       <c r="H21">
-        <v>11.31400690358553</v>
+        <v>5.901358956532955</v>
       </c>
       <c r="I21">
-        <v>15.24658391690631</v>
+        <v>10.75249948010987</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>18.83741175577979</v>
+        <v>32.14237793177134</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.75230315100799</v>
+        <v>9.773901300639876</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.246085528761705</v>
+        <v>6.932777032731055</v>
       </c>
       <c r="D22">
-        <v>4.41402890263292</v>
+        <v>5.840909509736466</v>
       </c>
       <c r="E22">
-        <v>21.78107332677352</v>
+        <v>41.13338961959759</v>
       </c>
       <c r="F22">
-        <v>17.83358536947</v>
+        <v>15.717836110978</v>
       </c>
       <c r="G22">
-        <v>17.71266107680089</v>
+        <v>18.88186578047306</v>
       </c>
       <c r="H22">
-        <v>11.26542649009976</v>
+        <v>5.870358182822695</v>
       </c>
       <c r="I22">
-        <v>15.19972078184904</v>
+        <v>11.1519548328281</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>19.42645001719906</v>
+        <v>33.25479125533784</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.6768795280164</v>
+        <v>9.925207766966478</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.182495709525043</v>
+        <v>6.810891844561326</v>
       </c>
       <c r="D23">
-        <v>4.374913633149544</v>
+        <v>5.752122925634537</v>
       </c>
       <c r="E23">
-        <v>21.38266596490005</v>
+        <v>40.26112234559653</v>
       </c>
       <c r="F23">
-        <v>17.84445680569581</v>
+        <v>15.37186337729009</v>
       </c>
       <c r="G23">
-        <v>17.72738914519061</v>
+        <v>18.42802381936979</v>
       </c>
       <c r="H23">
-        <v>11.29111854857986</v>
+        <v>5.885519439287678</v>
       </c>
       <c r="I23">
-        <v>15.22422237363608</v>
+        <v>10.88537351108221</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>19.11447622493725</v>
+        <v>32.66530428328941</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.71661071408861</v>
+        <v>9.841298059778484</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.94433573299126</v>
+        <v>6.329663320122394</v>
       </c>
       <c r="D24">
-        <v>4.222741041504537</v>
+        <v>5.403148880668352</v>
       </c>
       <c r="E24">
-        <v>19.80270271593401</v>
+        <v>36.87409198715292</v>
       </c>
       <c r="F24">
-        <v>17.90156153337551</v>
+        <v>14.43690792594503</v>
       </c>
       <c r="G24">
-        <v>17.80957130188604</v>
+        <v>16.75219940881487</v>
       </c>
       <c r="H24">
-        <v>11.39360245652267</v>
+        <v>5.971882313563117</v>
       </c>
       <c r="I24">
-        <v>15.32816616121954</v>
+        <v>10.42327503135965</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17.88025123866248</v>
+        <v>30.33936912201019</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.87852924645903</v>
+        <v>9.591143759193168</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.683350909743294</v>
+        <v>5.768255019693671</v>
       </c>
       <c r="D25">
-        <v>4.05059579862901</v>
+        <v>4.999955734053165</v>
       </c>
       <c r="E25">
-        <v>17.94544277659102</v>
+        <v>33.02269214250109</v>
       </c>
       <c r="F25">
-        <v>17.99667256326437</v>
+        <v>13.55064778515515</v>
       </c>
       <c r="G25">
-        <v>17.95314272212814</v>
+        <v>15.24578386129355</v>
       </c>
       <c r="H25">
-        <v>11.51515020872947</v>
+        <v>6.117935139161947</v>
       </c>
       <c r="I25">
-        <v>15.46371848264007</v>
+        <v>10.04808093428837</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.43804160077563</v>
+        <v>27.62866399899381</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.07722437957745</v>
+        <v>9.453839161446473</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_36/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.318102738081175</v>
+        <v>5.443575712294069</v>
       </c>
       <c r="D2">
-        <v>4.680638752384461</v>
+        <v>4.512473314505671</v>
       </c>
       <c r="E2">
-        <v>29.99896879469267</v>
+        <v>29.21699822656868</v>
       </c>
       <c r="F2">
-        <v>12.97883250060562</v>
+        <v>17.39760552764037</v>
       </c>
       <c r="G2">
-        <v>14.33086979006844</v>
+        <v>21.70495976093852</v>
       </c>
       <c r="H2">
-        <v>6.262803453638122</v>
+        <v>3.161223770235577</v>
       </c>
       <c r="I2">
-        <v>9.84887507245719</v>
+        <v>4.009239541374031</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.270547794301793</v>
       </c>
       <c r="K2">
-        <v>25.45724764491987</v>
+        <v>14.03173500655505</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>19.35535130889787</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>9.452373252493881</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>12.4122436929324</v>
+      </c>
+      <c r="Q2">
+        <v>13.60354189038374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.989981584992997</v>
+        <v>5.181557437377212</v>
       </c>
       <c r="D3">
-        <v>4.450703054369587</v>
+        <v>4.323194499050938</v>
       </c>
       <c r="E3">
-        <v>27.82476715555413</v>
+        <v>27.37511533206042</v>
       </c>
       <c r="F3">
-        <v>12.64165107469585</v>
+        <v>16.83042833838392</v>
       </c>
       <c r="G3">
-        <v>13.80074125233131</v>
+        <v>20.87764981558339</v>
       </c>
       <c r="H3">
-        <v>6.380648355822697</v>
+        <v>2.933982592850313</v>
       </c>
       <c r="I3">
-        <v>9.758324848103353</v>
+        <v>3.84767007939892</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.224500786995936</v>
       </c>
       <c r="K3">
-        <v>23.87574561501156</v>
+        <v>13.73476794310229</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>18.1647128457396</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>9.505332171340605</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>12.36804567807344</v>
+      </c>
+      <c r="Q3">
+        <v>13.36811458919481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.777149589308882</v>
+        <v>5.008712704294248</v>
       </c>
       <c r="D4">
-        <v>4.30307172522514</v>
+        <v>4.202133901647721</v>
       </c>
       <c r="E4">
-        <v>26.42583374150991</v>
+        <v>26.18090982923385</v>
       </c>
       <c r="F4">
-        <v>12.45915226606145</v>
+        <v>16.48052027761001</v>
       </c>
       <c r="G4">
-        <v>13.51988509155646</v>
+        <v>20.36327216576368</v>
       </c>
       <c r="H4">
-        <v>6.461643336975238</v>
+        <v>2.789436830282936</v>
       </c>
       <c r="I4">
-        <v>9.723192205108441</v>
+        <v>3.745059003912212</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.19887585045295</v>
       </c>
       <c r="K4">
-        <v>22.85056681383673</v>
+        <v>13.55194054376964</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>17.3902125992337</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>9.56158183201268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>12.34361859127053</v>
+      </c>
+      <c r="Q4">
+        <v>13.22708787303728</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.687567475725515</v>
+        <v>4.923202305473804</v>
       </c>
       <c r="D5">
-        <v>4.241331574446273</v>
+        <v>4.152904443316407</v>
       </c>
       <c r="E5">
-        <v>25.83935489481492</v>
+        <v>25.67809707118974</v>
       </c>
       <c r="F5">
-        <v>12.3908673646687</v>
+        <v>16.33114213755844</v>
       </c>
       <c r="G5">
-        <v>13.41659030817637</v>
+        <v>20.14019159790207</v>
       </c>
       <c r="H5">
-        <v>6.496677320481667</v>
+        <v>2.729084728189254</v>
       </c>
       <c r="I5">
-        <v>9.713779381943196</v>
+        <v>3.702296834777373</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.187200095930173</v>
       </c>
       <c r="K5">
-        <v>22.41923175465921</v>
+        <v>13.46954806481112</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>17.06083957484183</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>9.590038614677223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>12.33533898963242</v>
+      </c>
+      <c r="Q5">
+        <v>13.16561368396326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.672520509395121</v>
+        <v>4.894041184150725</v>
       </c>
       <c r="D6">
-        <v>4.230985710461295</v>
+        <v>4.14623979167282</v>
       </c>
       <c r="E6">
-        <v>25.74097094625478</v>
+        <v>25.59330893610117</v>
       </c>
       <c r="F6">
-        <v>12.37989291109174</v>
+        <v>16.2983021603802</v>
       </c>
       <c r="G6">
-        <v>13.40010753161239</v>
+        <v>20.08822961306969</v>
       </c>
       <c r="H6">
-        <v>6.502613198647043</v>
+        <v>2.718780607361819</v>
       </c>
       <c r="I6">
-        <v>9.712505091104848</v>
+        <v>3.695199143341998</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.182996000911949</v>
       </c>
       <c r="K6">
-        <v>22.34679146071529</v>
+        <v>13.44627927632436</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>17.00196440094398</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>9.595085510450769</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>12.33523490139372</v>
+      </c>
+      <c r="Q6">
+        <v>13.14944830995603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.775952986452314</v>
+        <v>4.967800967267967</v>
       </c>
       <c r="D7">
-        <v>4.302245407235423</v>
+        <v>4.205740707350106</v>
       </c>
       <c r="E7">
-        <v>26.41799110119932</v>
+        <v>26.17328937509225</v>
       </c>
       <c r="F7">
-        <v>12.45820685753926</v>
+        <v>16.45680534579226</v>
       </c>
       <c r="G7">
-        <v>13.518447037071</v>
+        <v>20.32020899154911</v>
       </c>
       <c r="H7">
-        <v>6.462107787753178</v>
+        <v>2.788075870903162</v>
       </c>
       <c r="I7">
-        <v>9.723045739962446</v>
+        <v>3.744419390378904</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.192435346263629</v>
       </c>
       <c r="K7">
-        <v>22.84480452592928</v>
+        <v>13.52480212464906</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>17.37638480625638</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>9.561943771370938</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12.34690280005045</v>
+      </c>
+      <c r="Q7">
+        <v>13.20991494378468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.207327388456724</v>
+        <v>5.305964742276321</v>
       </c>
       <c r="D8">
-        <v>4.602718584891784</v>
+        <v>4.453646877774709</v>
       </c>
       <c r="E8">
-        <v>29.26238253498202</v>
+        <v>28.59394379195305</v>
       </c>
       <c r="F8">
-        <v>12.85744342046191</v>
+        <v>17.17484976248321</v>
       </c>
       <c r="G8">
-        <v>14.13881162580456</v>
+        <v>21.37049380048295</v>
       </c>
       <c r="H8">
-        <v>6.301552761579178</v>
+        <v>3.083201197527318</v>
       </c>
       <c r="I8">
-        <v>9.813267133724667</v>
+        <v>3.953945690393437</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.245867214306326</v>
       </c>
       <c r="K8">
-        <v>24.92319809779158</v>
+        <v>13.89583749755288</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>18.94225635789189</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>9.465447317201846</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12.40108590162253</v>
+      </c>
+      <c r="Q8">
+        <v>13.50045114625079</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.963060556691026</v>
+        <v>5.938481232815492</v>
       </c>
       <c r="D9">
-        <v>5.139307510096698</v>
+        <v>4.893070315565622</v>
       </c>
       <c r="E9">
-        <v>34.3481344668445</v>
+        <v>32.84028312447927</v>
       </c>
       <c r="F9">
-        <v>13.836697222113</v>
+        <v>18.59892561662977</v>
       </c>
       <c r="G9">
-        <v>15.70693659410962</v>
+        <v>23.43577366796518</v>
       </c>
       <c r="H9">
-        <v>6.062421042185228</v>
+        <v>3.623928136804509</v>
       </c>
       <c r="I9">
-        <v>10.16208326638645</v>
+        <v>4.339083593255697</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.383467548495551</v>
       </c>
       <c r="K9">
-        <v>28.56893729494702</v>
+        <v>14.66166080880944</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>21.68212792322786</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>9.483581339958818</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>12.52296677145172</v>
+      </c>
+      <c r="Q9">
+        <v>14.12553422107231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.463588456240857</v>
+        <v>6.338433721331055</v>
       </c>
       <c r="D10">
-        <v>5.499993553831914</v>
+        <v>5.213099718082191</v>
       </c>
       <c r="E10">
-        <v>37.80807961437977</v>
+        <v>34.77854619264157</v>
       </c>
       <c r="F10">
-        <v>14.67599861652398</v>
+        <v>19.51730146956761</v>
       </c>
       <c r="G10">
-        <v>17.19961214390614</v>
+        <v>24.71085111140003</v>
       </c>
       <c r="H10">
-        <v>5.943868696633766</v>
+        <v>3.962959122479325</v>
       </c>
       <c r="I10">
-        <v>10.53405833182427</v>
+        <v>4.600475151538305</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.465828453045873</v>
       </c>
       <c r="K10">
-        <v>30.98644496133866</v>
+        <v>15.13893741200618</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>23.43920248004812</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>9.648011823259491</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>12.64977617525706</v>
+      </c>
+      <c r="Q10">
+        <v>14.51602086939238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.679536845456058</v>
+        <v>6.565396708342513</v>
       </c>
       <c r="D11">
-        <v>5.656607112819306</v>
+        <v>5.536383994525054</v>
       </c>
       <c r="E11">
-        <v>39.327871193333</v>
+        <v>28.1492036499087</v>
       </c>
       <c r="F11">
-        <v>15.08346571356022</v>
+        <v>19.0661445931178</v>
       </c>
       <c r="G11">
-        <v>17.95203170885271</v>
+        <v>23.71946277363853</v>
       </c>
       <c r="H11">
-        <v>5.90504029681809</v>
+        <v>4.335492275768056</v>
       </c>
       <c r="I11">
-        <v>10.73014380870698</v>
+        <v>4.664449042796232</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.236028612920867</v>
       </c>
       <c r="K11">
-        <v>32.03019302171101</v>
+        <v>14.74931693376895</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>23.83761597661833</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>9.760297304039447</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>12.9071601140229</v>
+      </c>
+      <c r="Q11">
+        <v>14.01263565236759</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.759635196881654</v>
+        <v>6.737224628589392</v>
       </c>
       <c r="D12">
-        <v>5.714829733518502</v>
+        <v>5.739440379939134</v>
       </c>
       <c r="E12">
-        <v>39.89613349022365</v>
+        <v>22.17609954353861</v>
       </c>
       <c r="F12">
-        <v>15.24141284787671</v>
+        <v>18.50828747729002</v>
       </c>
       <c r="G12">
-        <v>18.24065609566578</v>
+        <v>22.6486062670397</v>
       </c>
       <c r="H12">
-        <v>5.892752985831002</v>
+        <v>5.1734071497935</v>
       </c>
       <c r="I12">
-        <v>10.80836721081818</v>
+        <v>4.669353270786109</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.027941851111663</v>
       </c>
       <c r="K12">
-        <v>32.41745325953023</v>
+        <v>14.34748277539725</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>23.83003278306898</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>9.808533790680208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>13.09650273744287</v>
+      </c>
+      <c r="Q12">
+        <v>13.51644906847855</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.742458933569225</v>
+        <v>6.831467228849125</v>
       </c>
       <c r="D13">
-        <v>5.702338758869154</v>
+        <v>5.872038076823827</v>
       </c>
       <c r="E13">
-        <v>39.7740612505413</v>
+        <v>16.22481426023003</v>
       </c>
       <c r="F13">
-        <v>15.20723445182094</v>
+        <v>17.79126044235827</v>
       </c>
       <c r="G13">
-        <v>18.17833371981805</v>
+        <v>21.37056066860422</v>
       </c>
       <c r="H13">
-        <v>5.895287768119824</v>
+        <v>6.224412098464758</v>
       </c>
       <c r="I13">
-        <v>10.79134236783878</v>
+        <v>4.630048827619046</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.813398771154217</v>
       </c>
       <c r="K13">
-        <v>32.33440373814124</v>
+        <v>13.86880913073412</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>23.4995195034754</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>9.797886283409953</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>13.24710967094968</v>
+      </c>
+      <c r="Q13">
+        <v>12.96553698113912</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.686160109063673</v>
+        <v>6.854478318198343</v>
       </c>
       <c r="D14">
-        <v>5.661418882023106</v>
+        <v>5.935360751994716</v>
       </c>
       <c r="E14">
-        <v>39.37476447243898</v>
+        <v>12.11797934298865</v>
       </c>
       <c r="F14">
-        <v>15.09638722326113</v>
+        <v>17.20502595111908</v>
       </c>
       <c r="G14">
-        <v>17.97570382097594</v>
+        <v>20.35889138772909</v>
       </c>
       <c r="H14">
-        <v>5.903979535525583</v>
+        <v>7.041840033886936</v>
       </c>
       <c r="I14">
-        <v>10.73649919739647</v>
+        <v>4.583491869747768</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.658759441592864</v>
       </c>
       <c r="K14">
-        <v>32.06221274342654</v>
+        <v>13.48967186941463</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>23.11604659749646</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>9.76414948711064</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>13.33568006332639</v>
+      </c>
+      <c r="Q14">
+        <v>12.5490075461795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.651457508966534</v>
+        <v>6.828784740958562</v>
       </c>
       <c r="D15">
-        <v>5.636212936983394</v>
+        <v>5.937321099496249</v>
       </c>
       <c r="E15">
-        <v>39.12925652695209</v>
+        <v>11.13117569903845</v>
       </c>
       <c r="F15">
-        <v>15.02896404574133</v>
+        <v>17.02137818924163</v>
       </c>
       <c r="G15">
-        <v>17.85206388436747</v>
+        <v>20.05479092515032</v>
       </c>
       <c r="H15">
-        <v>5.909625661504216</v>
+        <v>7.230469631045295</v>
       </c>
       <c r="I15">
-        <v>10.70342597168904</v>
+        <v>4.562331037822065</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.618584165341398</v>
       </c>
       <c r="K15">
-        <v>31.89445030339003</v>
+        <v>13.37295990904866</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>22.94871013361825</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.744238027336792</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>13.34964140430827</v>
+      </c>
+      <c r="Q15">
+        <v>12.43190259914883</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.449240386666533</v>
+        <v>6.631138989801062</v>
       </c>
       <c r="D16">
-        <v>5.489607321644288</v>
+        <v>5.787829025586655</v>
       </c>
       <c r="E16">
-        <v>37.70771252335454</v>
+        <v>11.04841304861268</v>
       </c>
       <c r="F16">
-        <v>14.6498823898714</v>
+        <v>16.72813770872845</v>
       </c>
       <c r="G16">
-        <v>17.15096739473963</v>
+        <v>19.67794358619763</v>
       </c>
       <c r="H16">
-        <v>5.946730669294921</v>
+        <v>6.959664552853423</v>
       </c>
       <c r="I16">
-        <v>10.52179397946179</v>
+        <v>4.460867622145657</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.62109972834956</v>
       </c>
       <c r="K16">
-        <v>30.91711230029285</v>
+        <v>13.23695727582981</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>22.27019343541515</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.641456963966064</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>13.25767790805947</v>
+      </c>
+      <c r="Q16">
+        <v>12.35275780864063</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.32218668792264</v>
+        <v>6.461109045178712</v>
       </c>
       <c r="D17">
-        <v>5.397749131110698</v>
+        <v>5.636153617490482</v>
       </c>
       <c r="E17">
-        <v>36.82213500174623</v>
+        <v>13.20642095117849</v>
       </c>
       <c r="F17">
-        <v>14.42387008990888</v>
+        <v>16.82523701758418</v>
       </c>
       <c r="G17">
-        <v>16.72766267820669</v>
+        <v>19.94676020858299</v>
       </c>
       <c r="H17">
-        <v>5.973530451150991</v>
+        <v>6.267872359086107</v>
       </c>
       <c r="I17">
-        <v>10.41733379000548</v>
+        <v>4.407036182827348</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.705996447298319</v>
       </c>
       <c r="K17">
-        <v>30.30324985737351</v>
+        <v>13.33808798980268</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>21.95150273111568</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>9.588251959912943</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>13.14136701090449</v>
+      </c>
+      <c r="Q17">
+        <v>12.51777292953935</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.248002452866974</v>
+        <v>6.332012543966208</v>
       </c>
       <c r="D18">
-        <v>5.344212471060189</v>
+        <v>5.463685943968843</v>
       </c>
       <c r="E18">
-        <v>36.30764144130307</v>
+        <v>17.81437589401508</v>
       </c>
       <c r="F18">
-        <v>14.29629209802458</v>
+        <v>17.28072557511724</v>
       </c>
       <c r="G18">
-        <v>16.48675981138886</v>
+        <v>20.8251116539293</v>
       </c>
       <c r="H18">
-        <v>5.990350777970328</v>
+        <v>5.21979697861028</v>
       </c>
       <c r="I18">
-        <v>10.3597756450551</v>
+        <v>4.390221116440327</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.873672229397235</v>
       </c>
       <c r="K18">
-        <v>29.94489759579861</v>
+        <v>13.67098349620174</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>21.92535481627413</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>9.561161486980756</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>12.98865596344638</v>
+      </c>
+      <c r="Q18">
+        <v>12.91893903246015</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.222694602167341</v>
+        <v>6.189101079783224</v>
       </c>
       <c r="D19">
-        <v>5.325965644065102</v>
+        <v>5.29678719195725</v>
       </c>
       <c r="E19">
-        <v>36.13254578004693</v>
+        <v>24.11223671488833</v>
       </c>
       <c r="F19">
-        <v>14.25351308860765</v>
+        <v>17.94523309456372</v>
       </c>
       <c r="G19">
-        <v>16.40564359856179</v>
+        <v>22.04846125437853</v>
       </c>
       <c r="H19">
-        <v>5.996280096783855</v>
+        <v>4.214286465596436</v>
       </c>
       <c r="I19">
-        <v>10.34071745168767</v>
+        <v>4.411730005675343</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.0834098741395</v>
       </c>
       <c r="K19">
-        <v>29.82265793251475</v>
+        <v>14.11759575114903</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>22.12593796693171</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>9.552581530916262</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>12.82711500480424</v>
+      </c>
+      <c r="Q19">
+        <v>13.44862263275007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.33582618858958</v>
+        <v>6.136193209429197</v>
       </c>
       <c r="D20">
-        <v>5.407600360421854</v>
+        <v>5.143346555100115</v>
       </c>
       <c r="E20">
-        <v>36.91693376116086</v>
+        <v>34.23957363375287</v>
       </c>
       <c r="F20">
-        <v>14.44767952357714</v>
+        <v>19.21461573523514</v>
       </c>
       <c r="G20">
-        <v>16.77245992658923</v>
+        <v>24.26516745615929</v>
       </c>
       <c r="H20">
-        <v>5.970530349920873</v>
+        <v>3.871333004081855</v>
       </c>
       <c r="I20">
-        <v>10.42819163265181</v>
+        <v>4.534515221254611</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.423031383706153</v>
       </c>
       <c r="K20">
-        <v>30.36914204994432</v>
+        <v>14.93738407761632</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>22.96673166009517</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>9.59354976751594</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>12.62794221553716</v>
+      </c>
+      <c r="Q20">
+        <v>14.36213568707636</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.702741833039486</v>
+        <v>6.431964847315692</v>
       </c>
       <c r="D21">
-        <v>5.673467509063954</v>
+        <v>5.345730978062507</v>
       </c>
       <c r="E21">
-        <v>39.49223978212843</v>
+        <v>36.99916100963873</v>
       </c>
       <c r="F21">
-        <v>15.12884703517923</v>
+        <v>20.0746636346224</v>
       </c>
       <c r="G21">
-        <v>18.03512205657674</v>
+        <v>25.52405861924299</v>
       </c>
       <c r="H21">
-        <v>5.901358956532955</v>
+        <v>4.181133198090047</v>
       </c>
       <c r="I21">
-        <v>10.75249948010987</v>
+        <v>4.740613700024803</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.541373894590642</v>
       </c>
       <c r="K21">
-        <v>32.14237793177134</v>
+        <v>15.41928120127651</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>24.3176453616608</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>9.773901300639876</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>12.69459098661934</v>
+      </c>
+      <c r="Q21">
+        <v>14.79500646595109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.932777032731055</v>
+        <v>6.659140501837268</v>
       </c>
       <c r="D22">
-        <v>5.840909509736466</v>
+        <v>5.479341063313097</v>
       </c>
       <c r="E22">
-        <v>41.13338961959759</v>
+        <v>38.29517899861779</v>
       </c>
       <c r="F22">
-        <v>15.717836110978</v>
+        <v>20.60382459988209</v>
       </c>
       <c r="G22">
-        <v>18.88186578047306</v>
+        <v>26.28569891452664</v>
       </c>
       <c r="H22">
-        <v>5.870358182822695</v>
+        <v>4.361724873801904</v>
       </c>
       <c r="I22">
-        <v>11.1519548328281</v>
+        <v>4.868613592076113</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.614013405672125</v>
       </c>
       <c r="K22">
-        <v>33.25479125533784</v>
+        <v>15.7275246503139</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>25.1500584174661</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>9.925207766966478</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>12.7468595612398</v>
+      </c>
+      <c r="Q22">
+        <v>15.05989145414966</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.810891844561326</v>
+        <v>6.575437483967088</v>
       </c>
       <c r="D23">
-        <v>5.752122925634537</v>
+        <v>5.404311440126873</v>
       </c>
       <c r="E23">
-        <v>40.26112234559653</v>
+        <v>37.60927205161194</v>
       </c>
       <c r="F23">
-        <v>15.37186337729009</v>
+        <v>20.34323178497533</v>
       </c>
       <c r="G23">
-        <v>18.42802381936979</v>
+        <v>25.91844853550183</v>
       </c>
       <c r="H23">
-        <v>5.885519439287678</v>
+        <v>4.266222694982938</v>
       </c>
       <c r="I23">
-        <v>10.88537351108221</v>
+        <v>4.799634621502599</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.582046185082911</v>
       </c>
       <c r="K23">
-        <v>32.66530428328941</v>
+        <v>15.59036362523492</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>24.7175488837985</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>9.841298059778484</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>12.71427148092896</v>
+      </c>
+      <c r="Q23">
+        <v>14.93559540071067</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.329663320122394</v>
+        <v>6.180744984328589</v>
       </c>
       <c r="D24">
-        <v>5.403148880668352</v>
+        <v>5.116791730285406</v>
       </c>
       <c r="E24">
-        <v>36.87409198715292</v>
+        <v>34.9008397466305</v>
       </c>
       <c r="F24">
-        <v>14.43690792594503</v>
+        <v>19.31166984044818</v>
       </c>
       <c r="G24">
-        <v>16.75219940881487</v>
+        <v>24.44605982919365</v>
       </c>
       <c r="H24">
-        <v>5.971882313563117</v>
+        <v>3.896304549410841</v>
       </c>
       <c r="I24">
-        <v>10.42327503135965</v>
+        <v>4.534646290328308</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.455786880898025</v>
       </c>
       <c r="K24">
-        <v>30.33936912201019</v>
+        <v>15.02452536055874</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>22.99010272654993</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>9.591143759193168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>12.60330833940038</v>
+      </c>
+      <c r="Q24">
+        <v>14.44290332672308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.768255019693671</v>
+        <v>5.715030069057536</v>
       </c>
       <c r="D25">
-        <v>4.999955734053165</v>
+        <v>4.785541174845309</v>
       </c>
       <c r="E25">
-        <v>33.02269214250109</v>
+        <v>31.74377510016918</v>
       </c>
       <c r="F25">
-        <v>13.55064778515515</v>
+        <v>18.18121758680644</v>
       </c>
       <c r="G25">
-        <v>15.24578386129355</v>
+        <v>22.82017521414806</v>
       </c>
       <c r="H25">
-        <v>6.117935139161947</v>
+        <v>3.480781438175547</v>
       </c>
       <c r="I25">
-        <v>10.04808093428837</v>
+        <v>4.238102397550781</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.332708635249176</v>
       </c>
       <c r="K25">
-        <v>27.62866399899381</v>
+        <v>14.41132747637228</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>20.96364044122469</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>9.453839161446473</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.49415046031172</v>
+      </c>
+      <c r="Q25">
+        <v>13.92565895120437</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_36/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.443575712294069</v>
+        <v>4.430132944220837</v>
       </c>
       <c r="D2">
-        <v>4.512473314505671</v>
+        <v>4.654710440039026</v>
       </c>
       <c r="E2">
-        <v>29.21699822656868</v>
+        <v>29.15312784755204</v>
       </c>
       <c r="F2">
-        <v>17.39760552764037</v>
+        <v>16.87758650093943</v>
       </c>
       <c r="G2">
-        <v>21.70495976093852</v>
+        <v>20.08080541396171</v>
       </c>
       <c r="H2">
-        <v>3.161223770235577</v>
+        <v>3.120660613233224</v>
       </c>
       <c r="I2">
-        <v>4.009239541374031</v>
+        <v>3.914933519425343</v>
       </c>
       <c r="J2">
-        <v>8.270547794301793</v>
+        <v>8.758377168589705</v>
       </c>
       <c r="K2">
-        <v>14.03173500655505</v>
+        <v>13.39374119985974</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.44776527013351</v>
       </c>
       <c r="M2">
-        <v>19.35535130889787</v>
+        <v>7.729214998717518</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>19.07365084003376</v>
       </c>
       <c r="P2">
-        <v>12.4122436929324</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>13.60354189038374</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.54280858001261</v>
+      </c>
+      <c r="S2">
+        <v>13.23802791496448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.181557437377212</v>
+        <v>4.272027796335428</v>
       </c>
       <c r="D3">
-        <v>4.323194499050938</v>
+        <v>4.443934568597617</v>
       </c>
       <c r="E3">
-        <v>27.37511533206042</v>
+        <v>27.32162791403763</v>
       </c>
       <c r="F3">
-        <v>16.83042833838392</v>
+        <v>16.39135360919426</v>
       </c>
       <c r="G3">
-        <v>20.87764981558339</v>
+        <v>19.37484319090295</v>
       </c>
       <c r="H3">
-        <v>2.933982592850313</v>
+        <v>2.900665944540509</v>
       </c>
       <c r="I3">
-        <v>3.84767007939892</v>
+        <v>3.775204074027446</v>
       </c>
       <c r="J3">
-        <v>8.224500786995936</v>
+        <v>8.711868738956646</v>
       </c>
       <c r="K3">
-        <v>13.73476794310229</v>
+        <v>13.1887193719069</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.48888748071977</v>
       </c>
       <c r="M3">
-        <v>18.1647128457396</v>
+        <v>7.296545779877239</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>17.9207594269978</v>
       </c>
       <c r="P3">
-        <v>12.36804567807344</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>13.36811458919481</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.47367938228037</v>
+      </c>
+      <c r="S3">
+        <v>13.06306597005115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.008712704294248</v>
+        <v>4.166560803612528</v>
       </c>
       <c r="D4">
-        <v>4.202133901647721</v>
+        <v>4.309080614405953</v>
       </c>
       <c r="E4">
-        <v>26.18090982923385</v>
+        <v>26.13403292850352</v>
       </c>
       <c r="F4">
-        <v>16.48052027761001</v>
+        <v>16.091624347323</v>
       </c>
       <c r="G4">
-        <v>20.36327216576368</v>
+        <v>18.9383621535026</v>
       </c>
       <c r="H4">
-        <v>2.789436830282936</v>
+        <v>2.760669375565796</v>
       </c>
       <c r="I4">
-        <v>3.745059003912212</v>
+        <v>3.686520849353351</v>
       </c>
       <c r="J4">
-        <v>8.19887585045295</v>
+        <v>8.684033521147157</v>
       </c>
       <c r="K4">
-        <v>13.55194054376964</v>
+        <v>13.06199600611497</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.51201556324492</v>
       </c>
       <c r="M4">
-        <v>17.3902125992337</v>
+        <v>7.043892329719324</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>17.17074005458327</v>
       </c>
       <c r="P4">
-        <v>12.34361859127053</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>13.22708787303728</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.43404721738237</v>
+      </c>
+      <c r="S4">
+        <v>12.95862613682862</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.923202305473804</v>
+        <v>4.110989656720864</v>
       </c>
       <c r="D5">
-        <v>4.152904443316407</v>
+        <v>4.254092913259519</v>
       </c>
       <c r="E5">
-        <v>25.67809707118974</v>
+        <v>25.6340039855233</v>
       </c>
       <c r="F5">
-        <v>16.33114213755844</v>
+        <v>15.96293722749124</v>
       </c>
       <c r="G5">
-        <v>20.14019159790207</v>
+        <v>18.74785392091648</v>
       </c>
       <c r="H5">
-        <v>2.729084728189254</v>
+        <v>2.702209557598588</v>
       </c>
       <c r="I5">
-        <v>3.702296834777373</v>
+        <v>3.649808547156943</v>
       </c>
       <c r="J5">
-        <v>8.187200095930173</v>
+        <v>8.671085891926245</v>
       </c>
       <c r="K5">
-        <v>13.46954806481112</v>
+        <v>13.00275238441156</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.51508351169679</v>
       </c>
       <c r="M5">
-        <v>17.06083957484183</v>
+        <v>6.939258958005112</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>16.85172847981857</v>
       </c>
       <c r="P5">
-        <v>12.33533898963242</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>13.16561368396326</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.41961902339784</v>
+      </c>
+      <c r="S5">
+        <v>12.91209502857807</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.894041184150725</v>
+        <v>4.088888949705011</v>
       </c>
       <c r="D6">
-        <v>4.14623979167282</v>
+        <v>4.246469884107238</v>
       </c>
       <c r="E6">
-        <v>25.59330893610117</v>
+        <v>25.5497089841141</v>
       </c>
       <c r="F6">
-        <v>16.2983021603802</v>
+        <v>15.93375054136882</v>
       </c>
       <c r="G6">
-        <v>20.08822961306969</v>
+        <v>18.70141694555313</v>
       </c>
       <c r="H6">
-        <v>2.718780607361819</v>
+        <v>2.692235859230769</v>
       </c>
       <c r="I6">
-        <v>3.695199143341998</v>
+        <v>3.644053037642543</v>
       </c>
       <c r="J6">
-        <v>8.182996000911949</v>
+        <v>8.666766279486241</v>
       </c>
       <c r="K6">
-        <v>13.44627927632436</v>
+        <v>12.9838335472469</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.50845902658733</v>
       </c>
       <c r="M6">
-        <v>17.00196440094398</v>
+        <v>6.915164695942913</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>16.79465915685694</v>
       </c>
       <c r="P6">
-        <v>12.33523490139372</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>13.14944830995603</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.41851453326908</v>
+      </c>
+      <c r="S6">
+        <v>12.89864048926349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.967800967267967</v>
+        <v>4.134655149303321</v>
       </c>
       <c r="D7">
-        <v>4.205740707350106</v>
+        <v>4.315232185372821</v>
       </c>
       <c r="E7">
-        <v>26.17328937509225</v>
+        <v>26.1260129605324</v>
       </c>
       <c r="F7">
-        <v>16.45680534579226</v>
+        <v>16.05596382962227</v>
       </c>
       <c r="G7">
-        <v>20.32020899154911</v>
+        <v>18.99609965990068</v>
       </c>
       <c r="H7">
-        <v>2.788075870903162</v>
+        <v>2.759059995562172</v>
       </c>
       <c r="I7">
-        <v>3.744419390378904</v>
+        <v>3.686303418165093</v>
       </c>
       <c r="J7">
-        <v>8.192435346263629</v>
+        <v>8.63795271310782</v>
       </c>
       <c r="K7">
-        <v>13.52480212464906</v>
+        <v>13.02883427591146</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.48711896501665</v>
       </c>
       <c r="M7">
-        <v>17.37638480625638</v>
+        <v>7.016996588545522</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>17.15160118787414</v>
       </c>
       <c r="P7">
-        <v>12.34690280005045</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>13.20991494378468</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.43940169692336</v>
+      </c>
+      <c r="S7">
+        <v>12.93281732644498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.305964742276321</v>
+        <v>4.344543238633362</v>
       </c>
       <c r="D8">
-        <v>4.453646877774709</v>
+        <v>4.596893819905425</v>
       </c>
       <c r="E8">
-        <v>28.59394379195305</v>
+        <v>28.5321795002627</v>
       </c>
       <c r="F8">
-        <v>17.17484976248321</v>
+        <v>16.6423029708718</v>
       </c>
       <c r="G8">
-        <v>21.37049380048295</v>
+        <v>20.10696285872808</v>
       </c>
       <c r="H8">
-        <v>3.083201197527318</v>
+        <v>3.044201481529039</v>
       </c>
       <c r="I8">
-        <v>3.953945690393437</v>
+        <v>3.866555123617705</v>
       </c>
       <c r="J8">
-        <v>8.245867214306326</v>
+        <v>8.604088122549838</v>
       </c>
       <c r="K8">
-        <v>13.89583749755288</v>
+        <v>13.26634781014122</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.42064513508796</v>
       </c>
       <c r="M8">
-        <v>18.94225635789189</v>
+        <v>7.53066579622813</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>18.65618924322468</v>
       </c>
       <c r="P8">
-        <v>12.40108590162253</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>13.50045114625079</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.53032028041407</v>
+      </c>
+      <c r="S8">
+        <v>13.12577787091221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.938481232815492</v>
+        <v>4.734568344711019</v>
       </c>
       <c r="D9">
-        <v>4.893070315565622</v>
+        <v>5.087897140279725</v>
       </c>
       <c r="E9">
-        <v>32.84028312447927</v>
+        <v>32.75329970449144</v>
       </c>
       <c r="F9">
-        <v>18.59892561662977</v>
+        <v>17.86042187797692</v>
       </c>
       <c r="G9">
-        <v>23.43577366796518</v>
+        <v>21.94723655807588</v>
       </c>
       <c r="H9">
-        <v>3.623928136804509</v>
+        <v>3.567134037300154</v>
       </c>
       <c r="I9">
-        <v>4.339083593255697</v>
+        <v>4.198780122513393</v>
       </c>
       <c r="J9">
-        <v>8.383467548495551</v>
+        <v>8.697227170422437</v>
       </c>
       <c r="K9">
-        <v>14.66166080880944</v>
+        <v>13.79543438007475</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.32626572076212</v>
       </c>
       <c r="M9">
-        <v>21.68212792322786</v>
+        <v>8.670887672174986</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>21.30638801314145</v>
       </c>
       <c r="P9">
-        <v>12.52296677145172</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>14.12553422107231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.71694416368406</v>
+      </c>
+      <c r="S9">
+        <v>13.59019035283523</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.338433721331055</v>
+        <v>4.997544606299506</v>
       </c>
       <c r="D10">
-        <v>5.213099718082191</v>
+        <v>5.454474485673471</v>
       </c>
       <c r="E10">
-        <v>34.77854619264157</v>
+        <v>34.67164120784691</v>
       </c>
       <c r="F10">
-        <v>19.51730146956761</v>
+        <v>18.57634412734514</v>
       </c>
       <c r="G10">
-        <v>24.71085111140003</v>
+        <v>23.57600564706321</v>
       </c>
       <c r="H10">
-        <v>3.962959122479325</v>
+        <v>3.892550074784342</v>
       </c>
       <c r="I10">
-        <v>4.600475151538305</v>
+        <v>4.422712434764732</v>
       </c>
       <c r="J10">
-        <v>8.465828453045873</v>
+        <v>8.524989591528612</v>
       </c>
       <c r="K10">
-        <v>15.13893741200618</v>
+        <v>14.07019532090232</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.17551254222463</v>
       </c>
       <c r="M10">
-        <v>23.43920248004812</v>
+        <v>9.426178191801798</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>22.98083381060512</v>
       </c>
       <c r="P10">
-        <v>12.64977617525706</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>14.51602086939238</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.9040145119236</v>
+      </c>
+      <c r="S10">
+        <v>13.81855193093198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.565396708342513</v>
+        <v>5.233197832889067</v>
       </c>
       <c r="D11">
-        <v>5.536383994525054</v>
+        <v>5.812932583445321</v>
       </c>
       <c r="E11">
-        <v>28.1492036499087</v>
+        <v>28.02969503946072</v>
       </c>
       <c r="F11">
-        <v>19.0661445931178</v>
+        <v>17.98566109909252</v>
       </c>
       <c r="G11">
-        <v>23.71946277363853</v>
+        <v>23.66206186470602</v>
       </c>
       <c r="H11">
-        <v>4.335492275768056</v>
+        <v>4.269656816159751</v>
       </c>
       <c r="I11">
-        <v>4.664449042796232</v>
+        <v>4.475603251468607</v>
       </c>
       <c r="J11">
-        <v>8.236028612920867</v>
+        <v>7.901867580781054</v>
       </c>
       <c r="K11">
-        <v>14.74931693376895</v>
+        <v>13.606712145604</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.72297611931238</v>
       </c>
       <c r="M11">
-        <v>23.83761597661833</v>
+        <v>9.256129342638069</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>23.32185295443215</v>
       </c>
       <c r="P11">
-        <v>12.9071601140229</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>14.01263565236759</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>13.20801468398341</v>
+      </c>
+      <c r="S11">
+        <v>13.21751203166149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.737224628589392</v>
+        <v>5.431541330483078</v>
       </c>
       <c r="D12">
-        <v>5.739440379939134</v>
+        <v>6.028440215431971</v>
       </c>
       <c r="E12">
-        <v>22.17609954353861</v>
+        <v>22.04522001999066</v>
       </c>
       <c r="F12">
-        <v>18.50828747729002</v>
+        <v>17.39148929224308</v>
       </c>
       <c r="G12">
-        <v>22.6486062670397</v>
+        <v>23.12896849890161</v>
       </c>
       <c r="H12">
-        <v>5.1734071497935</v>
+        <v>5.119979519503397</v>
       </c>
       <c r="I12">
-        <v>4.669353270786109</v>
+        <v>4.478070860147374</v>
       </c>
       <c r="J12">
-        <v>8.027941851111663</v>
+        <v>7.574701626321019</v>
       </c>
       <c r="K12">
-        <v>14.34748277539725</v>
+        <v>13.21040572106282</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.4151105172969</v>
       </c>
       <c r="M12">
-        <v>23.83003278306898</v>
+        <v>8.996288933492766</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>23.29755591228359</v>
       </c>
       <c r="P12">
-        <v>13.09650273744287</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>13.51644906847855</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>13.41586666968193</v>
+      </c>
+      <c r="S12">
+        <v>12.70630935782896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.831467228849125</v>
+        <v>5.569287485681509</v>
       </c>
       <c r="D13">
-        <v>5.872038076823827</v>
+        <v>6.150656222114051</v>
       </c>
       <c r="E13">
-        <v>16.22481426023003</v>
+        <v>16.0784055982641</v>
       </c>
       <c r="F13">
-        <v>17.79126044235827</v>
+        <v>16.74448157990938</v>
       </c>
       <c r="G13">
-        <v>21.37056066860422</v>
+        <v>21.79724513051969</v>
       </c>
       <c r="H13">
-        <v>6.224412098464758</v>
+        <v>6.183457178961585</v>
       </c>
       <c r="I13">
-        <v>4.630048827619046</v>
+        <v>4.444857085148763</v>
       </c>
       <c r="J13">
-        <v>7.813398771154217</v>
+        <v>7.477777826945976</v>
       </c>
       <c r="K13">
-        <v>13.86880913073412</v>
+        <v>12.81870983084277</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.17821258730256</v>
       </c>
       <c r="M13">
-        <v>23.4995195034754</v>
+        <v>8.6317279644718</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>22.99125286523225</v>
       </c>
       <c r="P13">
-        <v>13.24710967094968</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>12.96553698113912</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>13.55684486440771</v>
+      </c>
+      <c r="S13">
+        <v>12.22556530379842</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.854478318198343</v>
+        <v>5.632760604567356</v>
       </c>
       <c r="D14">
-        <v>5.935360751994716</v>
+        <v>6.196239522945843</v>
       </c>
       <c r="E14">
-        <v>12.11797934298865</v>
+        <v>11.9518053785493</v>
       </c>
       <c r="F14">
-        <v>17.20502595111908</v>
+        <v>16.25483835090708</v>
       </c>
       <c r="G14">
-        <v>20.35889138772909</v>
+        <v>20.48865622099254</v>
       </c>
       <c r="H14">
-        <v>7.041840033886936</v>
+        <v>7.008377808957146</v>
       </c>
       <c r="I14">
-        <v>4.583491869747768</v>
+        <v>4.406581137698442</v>
       </c>
       <c r="J14">
-        <v>7.658759441592864</v>
+        <v>7.495763619213166</v>
       </c>
       <c r="K14">
-        <v>13.48967186941463</v>
+        <v>12.5369087610311</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.036258570832</v>
       </c>
       <c r="M14">
-        <v>23.11604659749646</v>
+        <v>8.320101668173386</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>22.64307857440802</v>
       </c>
       <c r="P14">
-        <v>13.33568006332639</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>12.5490075461795</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>13.62582007006433</v>
+      </c>
+      <c r="S14">
+        <v>11.89525607504796</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.828784740958562</v>
+        <v>5.621662525400706</v>
       </c>
       <c r="D15">
-        <v>5.937321099496249</v>
+        <v>6.189295031104883</v>
       </c>
       <c r="E15">
-        <v>11.13117569903845</v>
+        <v>10.95947490624847</v>
       </c>
       <c r="F15">
-        <v>17.02137818924163</v>
+        <v>16.11547642836567</v>
       </c>
       <c r="G15">
-        <v>20.05479092515032</v>
+        <v>20.00184326160522</v>
       </c>
       <c r="H15">
-        <v>7.230469631045295</v>
+        <v>7.198959592507786</v>
       </c>
       <c r="I15">
-        <v>4.562331037822065</v>
+        <v>4.38973486247084</v>
       </c>
       <c r="J15">
-        <v>7.618584165341398</v>
+        <v>7.536723307648688</v>
       </c>
       <c r="K15">
-        <v>13.37295990904866</v>
+        <v>12.46002060528529</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.0091233390914</v>
       </c>
       <c r="M15">
-        <v>22.94871013361825</v>
+        <v>8.213876742570339</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>22.49248988552653</v>
       </c>
       <c r="P15">
-        <v>13.34964140430827</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>12.43190259914883</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>13.62942659902004</v>
+      </c>
+      <c r="S15">
+        <v>11.81506935729773</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.631138989801062</v>
+        <v>5.455462016462191</v>
       </c>
       <c r="D16">
-        <v>5.787829025586655</v>
+        <v>6.000836400508636</v>
       </c>
       <c r="E16">
-        <v>11.04841304861268</v>
+        <v>10.89350912654873</v>
       </c>
       <c r="F16">
-        <v>16.72813770872845</v>
+        <v>15.99640736690317</v>
       </c>
       <c r="G16">
-        <v>19.67794358619763</v>
+        <v>18.72315147318691</v>
       </c>
       <c r="H16">
-        <v>6.959664552853423</v>
+        <v>6.931441842218808</v>
       </c>
       <c r="I16">
-        <v>4.460867622145657</v>
+        <v>4.306626746109822</v>
       </c>
       <c r="J16">
-        <v>7.62109972834956</v>
+        <v>7.878993505684101</v>
       </c>
       <c r="K16">
-        <v>13.23695727582981</v>
+        <v>12.45682909840657</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.12765172748396</v>
       </c>
       <c r="M16">
-        <v>22.27019343541515</v>
+        <v>7.994770746680096</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>21.88360356137991</v>
       </c>
       <c r="P16">
-        <v>13.25767790805947</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>12.35275780864063</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>13.48991047520035</v>
+      </c>
+      <c r="S16">
+        <v>11.86747005264568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.461109045178712</v>
+        <v>5.29191296621363</v>
       </c>
       <c r="D17">
-        <v>5.636153617490482</v>
+        <v>5.832716479494362</v>
       </c>
       <c r="E17">
-        <v>13.20642095117849</v>
+        <v>13.07583867938822</v>
       </c>
       <c r="F17">
-        <v>16.82523701758418</v>
+        <v>16.1578688892513</v>
       </c>
       <c r="G17">
-        <v>19.94676020858299</v>
+        <v>18.59166596217469</v>
       </c>
       <c r="H17">
-        <v>6.267872359086107</v>
+        <v>6.238650132322673</v>
       </c>
       <c r="I17">
-        <v>4.407036182827348</v>
+        <v>4.262134131946027</v>
       </c>
       <c r="J17">
-        <v>7.705996447298319</v>
+        <v>8.104831910883993</v>
       </c>
       <c r="K17">
-        <v>13.33808798980268</v>
+        <v>12.59730110987368</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.29337850633846</v>
       </c>
       <c r="M17">
-        <v>21.95150273111568</v>
+        <v>7.987144301135538</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>21.59280605742878</v>
       </c>
       <c r="P17">
-        <v>13.14136701090449</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>12.51777292953935</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>13.35234184853435</v>
+      </c>
+      <c r="S17">
+        <v>12.07506736595641</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.332012543966208</v>
+        <v>5.140581756453167</v>
       </c>
       <c r="D18">
-        <v>5.463685943968843</v>
+        <v>5.656395790511051</v>
       </c>
       <c r="E18">
-        <v>17.81437589401508</v>
+        <v>17.7056045213931</v>
       </c>
       <c r="F18">
-        <v>17.28072557511724</v>
+        <v>16.61428863812508</v>
       </c>
       <c r="G18">
-        <v>20.8251116539293</v>
+        <v>19.26858630342892</v>
       </c>
       <c r="H18">
-        <v>5.21979697861028</v>
+        <v>5.18455734278178</v>
       </c>
       <c r="I18">
-        <v>4.390221116440327</v>
+        <v>4.247165682291298</v>
       </c>
       <c r="J18">
-        <v>7.873672229397235</v>
+        <v>8.315309331949274</v>
       </c>
       <c r="K18">
-        <v>13.67098349620174</v>
+        <v>12.90844833695066</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.54222209549602</v>
       </c>
       <c r="M18">
-        <v>21.92535481627413</v>
+        <v>8.185691574670152</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>21.57021502137677</v>
       </c>
       <c r="P18">
-        <v>12.98865596344638</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>12.91893903246015</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>13.19235111025991</v>
+      </c>
+      <c r="S18">
+        <v>12.46658382655271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.189101079783224</v>
+        <v>4.965482231320116</v>
       </c>
       <c r="D19">
-        <v>5.29678719195725</v>
+        <v>5.493618904501851</v>
       </c>
       <c r="E19">
-        <v>24.11223671488833</v>
+        <v>24.01475312966963</v>
       </c>
       <c r="F19">
-        <v>17.94523309456372</v>
+        <v>17.24047719036348</v>
       </c>
       <c r="G19">
-        <v>22.04846125437853</v>
+        <v>20.38673608387532</v>
       </c>
       <c r="H19">
-        <v>4.214286465596436</v>
+        <v>4.167188472372446</v>
       </c>
       <c r="I19">
-        <v>4.411730005675343</v>
+        <v>4.266212775618112</v>
       </c>
       <c r="J19">
-        <v>8.0834098741395</v>
+        <v>8.514301445107222</v>
       </c>
       <c r="K19">
-        <v>14.11759575114903</v>
+        <v>13.29581515349668</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.81632716356655</v>
       </c>
       <c r="M19">
-        <v>22.12593796693171</v>
+        <v>8.499451373706213</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>21.75855646075854</v>
       </c>
       <c r="P19">
-        <v>12.82711500480424</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>13.44862263275007</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>13.03251076349984</v>
+      </c>
+      <c r="S19">
+        <v>12.95522352360695</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.136193209429197</v>
+        <v>4.840980667259517</v>
       </c>
       <c r="D20">
-        <v>5.143346555100115</v>
+        <v>5.364769563960145</v>
       </c>
       <c r="E20">
-        <v>34.23957363375287</v>
+        <v>34.1394267003947</v>
       </c>
       <c r="F20">
-        <v>19.21461573523514</v>
+        <v>18.36799095060771</v>
       </c>
       <c r="G20">
-        <v>24.26516745615929</v>
+        <v>22.73421284256007</v>
       </c>
       <c r="H20">
-        <v>3.871333004081855</v>
+        <v>3.805491698016871</v>
       </c>
       <c r="I20">
-        <v>4.534515221254611</v>
+        <v>4.37086829181972</v>
       </c>
       <c r="J20">
-        <v>8.423031383706153</v>
+        <v>8.685339718474479</v>
       </c>
       <c r="K20">
-        <v>14.93738407761632</v>
+        <v>13.95152196236333</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.18381068567063</v>
       </c>
       <c r="M20">
-        <v>22.96673166009517</v>
+        <v>9.188283269588776</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>22.54583265305661</v>
       </c>
       <c r="P20">
-        <v>12.62794221553716</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>14.36213568707636</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.85823910124763</v>
+      </c>
+      <c r="S20">
+        <v>13.74109139018697</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.431964847315692</v>
+        <v>5.072032562086943</v>
       </c>
       <c r="D21">
-        <v>5.345730978062507</v>
+        <v>5.644022809517671</v>
       </c>
       <c r="E21">
-        <v>36.99916100963873</v>
+        <v>36.87693708436722</v>
       </c>
       <c r="F21">
-        <v>20.0746636346224</v>
+        <v>18.85757355763202</v>
       </c>
       <c r="G21">
-        <v>25.52405861924299</v>
+        <v>25.82247717642863</v>
       </c>
       <c r="H21">
-        <v>4.181133198090047</v>
+        <v>4.0998057566519</v>
       </c>
       <c r="I21">
-        <v>4.740613700024803</v>
+        <v>4.54001372555134</v>
       </c>
       <c r="J21">
-        <v>8.541373894590642</v>
+        <v>7.939654248745569</v>
       </c>
       <c r="K21">
-        <v>15.41928120127651</v>
+        <v>14.13099733687131</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>12.05028615700964</v>
       </c>
       <c r="M21">
-        <v>24.3176453616608</v>
+        <v>9.740170009682592</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>23.75179534058449</v>
       </c>
       <c r="P21">
-        <v>12.69459098661934</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>14.79500646595109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>13.01618297896636</v>
+      </c>
+      <c r="S21">
+        <v>13.87303422919622</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.659140501837268</v>
+        <v>5.258276500901489</v>
       </c>
       <c r="D22">
-        <v>5.479341063313097</v>
+        <v>5.828794627351068</v>
       </c>
       <c r="E22">
-        <v>38.29517899861779</v>
+        <v>38.15873245682793</v>
       </c>
       <c r="F22">
-        <v>20.60382459988209</v>
+        <v>19.13770710843984</v>
       </c>
       <c r="G22">
-        <v>26.28569891452664</v>
+        <v>27.86190533571947</v>
       </c>
       <c r="H22">
-        <v>4.361724873801904</v>
+        <v>4.270620316476914</v>
       </c>
       <c r="I22">
-        <v>4.868613592076113</v>
+        <v>4.643647944921184</v>
       </c>
       <c r="J22">
-        <v>8.614013405672125</v>
+        <v>7.460097818216093</v>
       </c>
       <c r="K22">
-        <v>15.7275246503139</v>
+        <v>14.23646966349902</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.95603076629283</v>
       </c>
       <c r="M22">
-        <v>25.1500584174661</v>
+        <v>10.08772489800331</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>24.48898467364898</v>
       </c>
       <c r="P22">
-        <v>12.7468595612398</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>15.05989145414966</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>13.13221146006319</v>
+      </c>
+      <c r="S22">
+        <v>13.93217567597372</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.575437483967088</v>
+        <v>5.182954450790534</v>
       </c>
       <c r="D23">
-        <v>5.404311440126873</v>
+        <v>5.720881372422334</v>
       </c>
       <c r="E23">
-        <v>37.60927205161194</v>
+        <v>37.4810859860286</v>
       </c>
       <c r="F23">
-        <v>20.34323178497533</v>
+        <v>19.03780922402432</v>
       </c>
       <c r="G23">
-        <v>25.91844853550183</v>
+        <v>26.59711305376371</v>
       </c>
       <c r="H23">
-        <v>4.266222694982938</v>
+        <v>4.180794151166264</v>
       </c>
       <c r="I23">
-        <v>4.799634621502599</v>
+        <v>4.587290570803393</v>
       </c>
       <c r="J23">
-        <v>8.582046185082911</v>
+        <v>7.795772437331151</v>
       </c>
       <c r="K23">
-        <v>15.59036362523492</v>
+        <v>14.22429009092584</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>12.03472968805479</v>
       </c>
       <c r="M23">
-        <v>24.7175488837985</v>
+        <v>9.940123269368286</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>24.11774364219697</v>
       </c>
       <c r="P23">
-        <v>12.71427148092896</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>14.93559540071067</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>13.05915385488969</v>
+      </c>
+      <c r="S23">
+        <v>13.94002517952007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.180744984328589</v>
+        <v>4.87313890657579</v>
       </c>
       <c r="D24">
-        <v>5.116791730285406</v>
+        <v>5.338045605041571</v>
       </c>
       <c r="E24">
-        <v>34.9008397466305</v>
+        <v>34.80067553958972</v>
       </c>
       <c r="F24">
-        <v>19.31166984044818</v>
+        <v>18.46271500279656</v>
       </c>
       <c r="G24">
-        <v>24.44605982919365</v>
+        <v>22.89245125253373</v>
       </c>
       <c r="H24">
-        <v>3.896304549410841</v>
+        <v>3.830203861556159</v>
       </c>
       <c r="I24">
-        <v>4.534646290328308</v>
+        <v>4.368927927109822</v>
       </c>
       <c r="J24">
-        <v>8.455786880898025</v>
+        <v>8.721271545982047</v>
       </c>
       <c r="K24">
-        <v>15.02452536055874</v>
+        <v>14.03216987641154</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.24221377340405</v>
       </c>
       <c r="M24">
-        <v>22.99010272654993</v>
+        <v>9.25133221891789</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>22.56857206201331</v>
       </c>
       <c r="P24">
-        <v>12.60330833940038</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>14.44290332672308</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.83294328982021</v>
+      </c>
+      <c r="S24">
+        <v>13.81848384720996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.715030069057536</v>
+        <v>4.580708974372434</v>
       </c>
       <c r="D25">
-        <v>4.785541174845309</v>
+        <v>4.963647787771508</v>
       </c>
       <c r="E25">
-        <v>31.74377510016918</v>
+        <v>31.66422509433314</v>
       </c>
       <c r="F25">
-        <v>18.18121758680644</v>
+        <v>17.51517695435887</v>
       </c>
       <c r="G25">
-        <v>22.82017521414806</v>
+        <v>21.26089271938161</v>
       </c>
       <c r="H25">
-        <v>3.480781438175547</v>
+        <v>3.429192572999187</v>
       </c>
       <c r="I25">
-        <v>4.238102397550781</v>
+        <v>4.113903047306511</v>
       </c>
       <c r="J25">
-        <v>8.332708635249176</v>
+        <v>8.716187201789124</v>
       </c>
       <c r="K25">
-        <v>14.41132747637228</v>
+        <v>13.62192961873832</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.33176521576114</v>
       </c>
       <c r="M25">
-        <v>20.96364044122469</v>
+        <v>8.331633877831896</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>20.61817291659379</v>
       </c>
       <c r="P25">
-        <v>12.49415046031172</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>13.92565895120437</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.66752661137526</v>
+      </c>
+      <c r="S25">
+        <v>13.44806793742918</v>
       </c>
     </row>
   </sheetData>
